--- a/budget-web-tests/testData/Budget_Anonymous_CA.xlsx
+++ b/budget-web-tests/testData/Budget_Anonymous_CA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/StatusNeo/Documents/Budget_Framework 25 march/ecom-us-web/budget-web-tests/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC6783FD-097B-AC49-B972-735792DB3571}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C2B6B8A-85DB-5343-919F-FDE0BB645E8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1188" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="113">
   <si>
     <t>TestMethodName</t>
   </si>
@@ -370,7 +370,7 @@
     <numFmt numFmtId="164" formatCode="0;[Red]0"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -424,12 +424,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Menlo"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -453,7 +447,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -481,13 +475,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -768,7 +759,7 @@
   <dimension ref="A1:BC22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AH1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="A21" sqref="A1:BC21"/>
+      <selection activeCell="A5" sqref="A1:BC21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -945,7 +936,9 @@
       </c>
     </row>
     <row r="2" spans="1:55" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="11"/>
+      <c r="A2" s="12" t="s">
+        <v>112</v>
+      </c>
       <c r="B2" s="2" t="s">
         <v>83</v>
       </c>
@@ -1277,7 +1270,9 @@
       </c>
     </row>
     <row r="4" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A4" s="5"/>
+      <c r="A4" s="5" t="s">
+        <v>112</v>
+      </c>
       <c r="B4" s="2" t="s">
         <v>89</v>
       </c>
@@ -1442,7 +1437,9 @@
       </c>
     </row>
     <row r="5" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A5" s="5"/>
+      <c r="A5" s="5" t="s">
+        <v>112</v>
+      </c>
       <c r="B5" t="s">
         <v>90</v>
       </c>
@@ -1606,8 +1603,10 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:55" ht="18" x14ac:dyDescent="0.2">
-      <c r="A6" s="13"/>
+    <row r="6" spans="1:55" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>112</v>
+      </c>
       <c r="B6" s="2" t="s">
         <v>91</v>
       </c>
@@ -1626,13 +1625,13 @@
       <c r="G6" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="11" t="s">
         <v>56</v>
       </c>
       <c r="I6" t="s">
         <v>56</v>
       </c>
-      <c r="J6" s="12" t="s">
+      <c r="J6" s="11" t="s">
         <v>56</v>
       </c>
       <c r="K6" s="2" t="s">
@@ -1722,7 +1721,7 @@
       <c r="AM6" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="AN6" s="12" t="s">
+      <c r="AN6" s="11" t="s">
         <v>76</v>
       </c>
       <c r="AO6" s="2" t="s">
@@ -1772,7 +1771,9 @@
       </c>
     </row>
     <row r="7" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A7" s="5"/>
+      <c r="A7" s="5" t="s">
+        <v>112</v>
+      </c>
       <c r="B7" s="2" t="s">
         <v>93</v>
       </c>
@@ -1937,7 +1938,9 @@
       </c>
     </row>
     <row r="8" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A8" s="5"/>
+      <c r="A8" s="5" t="s">
+        <v>112</v>
+      </c>
       <c r="B8" s="2" t="s">
         <v>94</v>
       </c>
@@ -2102,7 +2105,9 @@
       </c>
     </row>
     <row r="9" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A9" s="5"/>
+      <c r="A9" s="5" t="s">
+        <v>112</v>
+      </c>
       <c r="B9" s="2" t="s">
         <v>97</v>
       </c>
@@ -2267,7 +2272,9 @@
       </c>
     </row>
     <row r="10" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A10" s="5"/>
+      <c r="A10" s="5" t="s">
+        <v>112</v>
+      </c>
       <c r="B10" t="s">
         <v>98</v>
       </c>
@@ -2432,7 +2439,9 @@
       </c>
     </row>
     <row r="11" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A11" s="5"/>
+      <c r="A11" s="5" t="s">
+        <v>112</v>
+      </c>
       <c r="B11" t="s">
         <v>99</v>
       </c>
@@ -2451,13 +2460,13 @@
       <c r="G11" t="s">
         <v>56</v>
       </c>
-      <c r="H11" s="12" t="s">
+      <c r="H11" s="11" t="s">
         <v>56</v>
       </c>
       <c r="I11" t="s">
         <v>56</v>
       </c>
-      <c r="J11" s="12" t="s">
+      <c r="J11" s="11" t="s">
         <v>56</v>
       </c>
       <c r="K11" t="s">
@@ -2597,7 +2606,9 @@
       </c>
     </row>
     <row r="12" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A12" s="5"/>
+      <c r="A12" s="5" t="s">
+        <v>112</v>
+      </c>
       <c r="B12" t="s">
         <v>100</v>
       </c>
@@ -2762,7 +2773,9 @@
       </c>
     </row>
     <row r="13" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A13" s="5"/>
+      <c r="A13" s="5" t="s">
+        <v>112</v>
+      </c>
       <c r="B13" t="s">
         <v>101</v>
       </c>
@@ -2927,7 +2940,9 @@
       </c>
     </row>
     <row r="14" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A14" s="5"/>
+      <c r="A14" s="5" t="s">
+        <v>112</v>
+      </c>
       <c r="B14" t="s">
         <v>102</v>
       </c>
@@ -3092,7 +3107,9 @@
       </c>
     </row>
     <row r="15" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A15" s="5"/>
+      <c r="A15" s="5" t="s">
+        <v>112</v>
+      </c>
       <c r="B15" t="s">
         <v>103</v>
       </c>
@@ -3257,7 +3274,9 @@
       </c>
     </row>
     <row r="16" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A16" s="5"/>
+      <c r="A16" s="5" t="s">
+        <v>112</v>
+      </c>
       <c r="B16" t="s">
         <v>104</v>
       </c>
@@ -3294,7 +3313,7 @@
       <c r="M16" t="s">
         <v>56</v>
       </c>
-      <c r="N16" s="12" t="s">
+      <c r="N16" s="11" t="s">
         <v>80</v>
       </c>
       <c r="O16" t="s">
@@ -3422,7 +3441,9 @@
       </c>
     </row>
     <row r="17" spans="1:55" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="5"/>
+      <c r="A17" s="5" t="s">
+        <v>112</v>
+      </c>
       <c r="B17" t="s">
         <v>105</v>
       </c>
@@ -3587,7 +3608,9 @@
       </c>
     </row>
     <row r="18" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A18" s="5"/>
+      <c r="A18" s="5" t="s">
+        <v>112</v>
+      </c>
       <c r="B18" t="s">
         <v>97</v>
       </c>
@@ -3752,7 +3775,9 @@
       </c>
     </row>
     <row r="19" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A19" s="5"/>
+      <c r="A19" s="5" t="s">
+        <v>112</v>
+      </c>
       <c r="B19" t="s">
         <v>106</v>
       </c>
@@ -3917,7 +3942,9 @@
       </c>
     </row>
     <row r="20" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A20" s="5"/>
+      <c r="A20" s="5" t="s">
+        <v>112</v>
+      </c>
       <c r="B20" t="s">
         <v>107</v>
       </c>
@@ -4023,7 +4050,7 @@
       <c r="AJ20" t="s">
         <v>56</v>
       </c>
-      <c r="AK20" s="12" t="s">
+      <c r="AK20" s="11" t="s">
         <v>56</v>
       </c>
       <c r="AL20" t="s">
@@ -4082,7 +4109,9 @@
       </c>
     </row>
     <row r="21" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A21" s="5"/>
+      <c r="A21" s="5" t="s">
+        <v>112</v>
+      </c>
       <c r="B21" t="s">
         <v>108</v>
       </c>
@@ -4188,7 +4217,7 @@
       <c r="AJ21" t="s">
         <v>56</v>
       </c>
-      <c r="AK21" s="12" t="s">
+      <c r="AK21" s="11" t="s">
         <v>56</v>
       </c>
       <c r="AL21" t="s">

--- a/budget-web-tests/testData/Budget_Anonymous_CA.xlsx
+++ b/budget-web-tests/testData/Budget_Anonymous_CA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/StatusNeo/Documents/Budget_Framework 25 march/ecom-us-web/budget-web-tests/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C2B6B8A-85DB-5343-919F-FDE0BB645E8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DED20439-E4E2-1047-A277-A7AAC5140092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Budget CA Anonymous" sheetId="3" r:id="rId1"/>
@@ -758,8 +758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BC22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AH1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="A5" sqref="A1:BC21"/>
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/budget-web-tests/testData/Budget_Anonymous_CA.xlsx
+++ b/budget-web-tests/testData/Budget_Anonymous_CA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/StatusNeo/Documents/Budget_Framework 25 march/ecom-us-web/budget-web-tests/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DED20439-E4E2-1047-A277-A7AAC5140092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A090C7ED-7D55-3A4A-9942-B877BE67566A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -370,7 +370,7 @@
     <numFmt numFmtId="164" formatCode="0;[Red]0"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -386,24 +386,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -447,38 +434,32 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -758,8 +739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BC22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="AH1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="A2" sqref="A1:BC21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -935,8 +916,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:55" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
         <v>112</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1103,7 +1084,7 @@
       </c>
     </row>
     <row r="3" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="10" t="s">
         <v>112</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1270,7 +1251,7 @@
       </c>
     </row>
     <row r="4" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="10" t="s">
         <v>112</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1437,7 +1418,7 @@
       </c>
     </row>
     <row r="5" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="10" t="s">
         <v>112</v>
       </c>
       <c r="B5" t="s">
@@ -1533,7 +1514,7 @@
       <c r="AF5" t="s">
         <v>69</v>
       </c>
-      <c r="AG5" s="9">
+      <c r="AG5" s="8">
         <v>112000000000</v>
       </c>
       <c r="AH5" t="s">
@@ -1604,7 +1585,7 @@
       </c>
     </row>
     <row r="6" spans="1:55" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="10" t="s">
         <v>112</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -1620,18 +1601,18 @@
         <v>56</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="10" t="s">
         <v>56</v>
       </c>
       <c r="I6" t="s">
         <v>56</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="J6" s="10" t="s">
         <v>56</v>
       </c>
       <c r="K6" s="2" t="s">
@@ -1670,7 +1651,7 @@
       <c r="V6" s="4">
         <v>9840000000</v>
       </c>
-      <c r="W6" s="8">
+      <c r="W6" s="7">
         <v>342000000000000</v>
       </c>
       <c r="X6" s="2">
@@ -1721,7 +1702,7 @@
       <c r="AM6" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="AN6" s="11" t="s">
+      <c r="AN6" s="10" t="s">
         <v>76</v>
       </c>
       <c r="AO6" s="2" t="s">
@@ -1763,7 +1744,7 @@
       <c r="BA6" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="BB6" s="10" t="s">
+      <c r="BB6" s="9" t="s">
         <v>81</v>
       </c>
       <c r="BC6">
@@ -1771,7 +1752,7 @@
       </c>
     </row>
     <row r="7" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="10" t="s">
         <v>112</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -1837,7 +1818,7 @@
       <c r="V7" s="4">
         <v>9840000000</v>
       </c>
-      <c r="W7" s="8">
+      <c r="W7" s="7">
         <v>342000000000000</v>
       </c>
       <c r="X7" s="2">
@@ -1938,7 +1919,7 @@
       </c>
     </row>
     <row r="8" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="10" t="s">
         <v>112</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -2105,7 +2086,7 @@
       </c>
     </row>
     <row r="9" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="10" t="s">
         <v>112</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -2272,7 +2253,7 @@
       </c>
     </row>
     <row r="10" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="10" t="s">
         <v>112</v>
       </c>
       <c r="B10" t="s">
@@ -2439,7 +2420,7 @@
       </c>
     </row>
     <row r="11" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="10" t="s">
         <v>112</v>
       </c>
       <c r="B11" t="s">
@@ -2460,13 +2441,13 @@
       <c r="G11" t="s">
         <v>56</v>
       </c>
-      <c r="H11" s="11" t="s">
+      <c r="H11" s="10" t="s">
         <v>56</v>
       </c>
       <c r="I11" t="s">
         <v>56</v>
       </c>
-      <c r="J11" s="11" t="s">
+      <c r="J11" s="10" t="s">
         <v>56</v>
       </c>
       <c r="K11" t="s">
@@ -2606,7 +2587,7 @@
       </c>
     </row>
     <row r="12" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="10" t="s">
         <v>112</v>
       </c>
       <c r="B12" t="s">
@@ -2642,7 +2623,7 @@
       <c r="L12" t="s">
         <v>56</v>
       </c>
-      <c r="M12" t="s">
+      <c r="M12" s="10" t="s">
         <v>77</v>
       </c>
       <c r="N12" t="s">
@@ -2773,7 +2754,7 @@
       </c>
     </row>
     <row r="13" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="10" t="s">
         <v>112</v>
       </c>
       <c r="B13" t="s">
@@ -2869,7 +2850,7 @@
       <c r="AF13" t="s">
         <v>69</v>
       </c>
-      <c r="AG13" s="9">
+      <c r="AG13" s="8">
         <v>112000000000</v>
       </c>
       <c r="AH13" t="s">
@@ -2940,7 +2921,7 @@
       </c>
     </row>
     <row r="14" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="10" t="s">
         <v>112</v>
       </c>
       <c r="B14" t="s">
@@ -3107,7 +3088,7 @@
       </c>
     </row>
     <row r="15" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="10" t="s">
         <v>112</v>
       </c>
       <c r="B15" t="s">
@@ -3274,7 +3255,7 @@
       </c>
     </row>
     <row r="16" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="10" t="s">
         <v>112</v>
       </c>
       <c r="B16" t="s">
@@ -3295,7 +3276,7 @@
       <c r="G16" t="s">
         <v>56</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="H16" s="5" t="s">
         <v>78</v>
       </c>
       <c r="I16" t="s">
@@ -3313,7 +3294,7 @@
       <c r="M16" t="s">
         <v>56</v>
       </c>
-      <c r="N16" s="11" t="s">
+      <c r="N16" s="10" t="s">
         <v>80</v>
       </c>
       <c r="O16" t="s">
@@ -3441,7 +3422,7 @@
       </c>
     </row>
     <row r="17" spans="1:55" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="10" t="s">
         <v>112</v>
       </c>
       <c r="B17" t="s">
@@ -3600,7 +3581,7 @@
       <c r="BA17" t="s">
         <v>56</v>
       </c>
-      <c r="BB17" s="10" t="s">
+      <c r="BB17" s="9" t="s">
         <v>81</v>
       </c>
       <c r="BC17">
@@ -3608,7 +3589,7 @@
       </c>
     </row>
     <row r="18" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="10" t="s">
         <v>112</v>
       </c>
       <c r="B18" t="s">
@@ -3775,7 +3756,7 @@
       </c>
     </row>
     <row r="19" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="10" t="s">
         <v>112</v>
       </c>
       <c r="B19" t="s">
@@ -3811,7 +3792,7 @@
       <c r="L19" t="s">
         <v>56</v>
       </c>
-      <c r="M19" s="7" t="s">
+      <c r="M19" s="6" t="s">
         <v>82</v>
       </c>
       <c r="N19" t="s">
@@ -3942,7 +3923,7 @@
       </c>
     </row>
     <row r="20" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="10" t="s">
         <v>112</v>
       </c>
       <c r="B20" t="s">
@@ -4050,7 +4031,7 @@
       <c r="AJ20" t="s">
         <v>56</v>
       </c>
-      <c r="AK20" s="11" t="s">
+      <c r="AK20" s="10" t="s">
         <v>56</v>
       </c>
       <c r="AL20" t="s">
@@ -4109,7 +4090,7 @@
       </c>
     </row>
     <row r="21" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="10" t="s">
         <v>112</v>
       </c>
       <c r="B21" t="s">
@@ -4217,7 +4198,7 @@
       <c r="AJ21" t="s">
         <v>56</v>
       </c>
-      <c r="AK21" s="11" t="s">
+      <c r="AK21" s="10" t="s">
         <v>56</v>
       </c>
       <c r="AL21" t="s">

--- a/budget-web-tests/testData/Budget_Anonymous_CA.xlsx
+++ b/budget-web-tests/testData/Budget_Anonymous_CA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/StatusNeo/Documents/Budget_Framework 25 march/ecom-us-web/budget-web-tests/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A090C7ED-7D55-3A4A-9942-B877BE67566A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F7D1BCD-23F0-7649-84CA-70E08E1B80FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Budget CA Anonymous" sheetId="3" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1291" uniqueCount="117">
   <si>
     <t>TestMethodName</t>
   </si>
@@ -360,6 +360,18 @@
   </si>
   <si>
     <t>AnonymousUserTestCases</t>
+  </si>
+  <si>
+    <t>VerifyKeyDropMessage</t>
+  </si>
+  <si>
+    <t>SelectMyCar</t>
+  </si>
+  <si>
+    <t>Continue</t>
+  </si>
+  <si>
+    <t>ReserveButton</t>
   </si>
 </sst>
 </file>
@@ -737,10 +749,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:BC22"/>
+  <dimension ref="A1:BG22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AH1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:BC21"/>
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -749,7 +761,7 @@
     <col min="2" max="2" width="96.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:59" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -915,8 +927,20 @@
       <c r="BC1" t="s">
         <v>54</v>
       </c>
+      <c r="BD1" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="BE1" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="BF1" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="BG1" s="10" t="s">
+        <v>116</v>
+      </c>
     </row>
-    <row r="2" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>112</v>
       </c>
@@ -1082,8 +1106,20 @@
       <c r="BC2" s="2" t="s">
         <v>56</v>
       </c>
+      <c r="BD2" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE2" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF2" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="BG2" s="10" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="3" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>112</v>
       </c>
@@ -1249,8 +1285,20 @@
       <c r="BC3" s="2" t="s">
         <v>56</v>
       </c>
+      <c r="BD3" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE3" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF3" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="BG3" s="10" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="4" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>112</v>
       </c>
@@ -1416,8 +1464,20 @@
       <c r="BC4" t="s">
         <v>56</v>
       </c>
+      <c r="BD4" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE4" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF4" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="BG4" s="10" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="5" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>112</v>
       </c>
@@ -1583,8 +1643,20 @@
       <c r="BC5" t="s">
         <v>56</v>
       </c>
+      <c r="BD5" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE5" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF5" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="BG5" s="10" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="6" spans="1:55" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:59" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>112</v>
       </c>
@@ -1750,8 +1822,20 @@
       <c r="BC6">
         <v>2323</v>
       </c>
+      <c r="BD6" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE6" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF6" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="BG6" s="10" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="7" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>112</v>
       </c>
@@ -1917,8 +2001,20 @@
       <c r="BC7" s="2">
         <v>2323</v>
       </c>
+      <c r="BD7" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE7" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF7" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="BG7" s="10" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="8" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>112</v>
       </c>
@@ -2084,8 +2180,20 @@
       <c r="BC8" s="2">
         <v>2323</v>
       </c>
+      <c r="BD8" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE8" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF8" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="BG8" s="10" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="9" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
         <v>112</v>
       </c>
@@ -2251,8 +2359,20 @@
       <c r="BC9" s="2">
         <v>2323</v>
       </c>
+      <c r="BD9" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE9" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF9" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="BG9" s="10" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="10" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>112</v>
       </c>
@@ -2418,8 +2538,20 @@
       <c r="BC10" s="2">
         <v>2323</v>
       </c>
+      <c r="BD10" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE10" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF10" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="BG10" s="10" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="11" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
         <v>112</v>
       </c>
@@ -2585,8 +2717,20 @@
       <c r="BC11" s="2">
         <v>2323</v>
       </c>
+      <c r="BD11" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE11" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF11" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="BG11" s="10" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="12" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
         <v>112</v>
       </c>
@@ -2752,8 +2896,20 @@
       <c r="BC12">
         <v>2323</v>
       </c>
+      <c r="BD12" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE12" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF12" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="BG12" s="10" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="13" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
         <v>112</v>
       </c>
@@ -2919,8 +3075,20 @@
       <c r="BC13" s="2">
         <v>2323</v>
       </c>
+      <c r="BD13" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE13" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF13" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="BG13" s="10" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="14" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
         <v>112</v>
       </c>
@@ -3086,8 +3254,20 @@
       <c r="BC14" s="2">
         <v>2323</v>
       </c>
+      <c r="BD14" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE14" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF14" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="BG14" s="10" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="15" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
         <v>112</v>
       </c>
@@ -3253,8 +3433,20 @@
       <c r="BC15" s="2">
         <v>2323</v>
       </c>
+      <c r="BD15" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE15" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF15" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="BG15" s="10" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="16" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
         <v>112</v>
       </c>
@@ -3420,8 +3612,20 @@
       <c r="BC16" s="2">
         <v>2323</v>
       </c>
+      <c r="BD16" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE16" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF16" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="BG16" s="10" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="17" spans="1:55" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:59" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
         <v>112</v>
       </c>
@@ -3587,8 +3791,20 @@
       <c r="BC17">
         <v>2323</v>
       </c>
+      <c r="BD17" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE17" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF17" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="BG17" s="10" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="18" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
         <v>112</v>
       </c>
@@ -3754,8 +3970,20 @@
       <c r="BC18" s="2">
         <v>2323</v>
       </c>
+      <c r="BD18" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE18" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF18" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="BG18" s="10" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="19" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
         <v>112</v>
       </c>
@@ -3921,8 +4149,20 @@
       <c r="BC19" s="2">
         <v>2323</v>
       </c>
+      <c r="BD19" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE19" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF19" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="BG19" s="10" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="20" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
         <v>112</v>
       </c>
@@ -4088,8 +4328,20 @@
       <c r="BC20" s="2">
         <v>2323</v>
       </c>
+      <c r="BD20" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE20" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF20" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="BG20" s="10" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="21" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
         <v>112</v>
       </c>
@@ -4255,8 +4507,20 @@
       <c r="BC21" s="2">
         <v>2323</v>
       </c>
+      <c r="BD21" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE21" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF21" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="BG21" s="10" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="22" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:59" x14ac:dyDescent="0.2">
       <c r="F22" s="2"/>
     </row>
   </sheetData>

--- a/budget-web-tests/testData/Budget_Anonymous_CA.xlsx
+++ b/budget-web-tests/testData/Budget_Anonymous_CA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/StatusNeo/Documents/Budget_Framework 25 march/ecom-us-web/budget-web-tests/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F7D1BCD-23F0-7649-84CA-70E08E1B80FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03A18CAC-E323-4F46-AE51-885E4EE85246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Budget CA Anonymous" sheetId="3" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1291" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1291" uniqueCount="116">
   <si>
     <t>TestMethodName</t>
   </si>
@@ -267,9 +267,6 @@
   </si>
   <si>
     <t>Delta</t>
-  </si>
-  <si>
-    <t>GUZZ007</t>
   </si>
   <si>
     <t>Budget_RES_Incognito_PayLater_CA</t>
@@ -752,7 +749,7 @@
   <dimension ref="A1:BG22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:XFD21"/>
+      <selection activeCell="AF19" sqref="AF19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -928,24 +925,24 @@
         <v>54</v>
       </c>
       <c r="BD1" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="BE1" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="BE1" s="10" t="s">
+      <c r="BF1" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="BF1" s="10" t="s">
+      <c r="BG1" s="10" t="s">
         <v>115</v>
-      </c>
-      <c r="BG1" s="10" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>55</v>
@@ -957,10 +954,10 @@
         <v>56</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>85</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>56</v>
@@ -1121,10 +1118,10 @@
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>55</v>
@@ -1136,10 +1133,10 @@
         <v>56</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>85</v>
       </c>
       <c r="H3" t="s">
         <v>62</v>
@@ -1208,10 +1205,10 @@
         <v>66</v>
       </c>
       <c r="AD3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE3" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="AE3" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="AF3" s="2" t="s">
         <v>56</v>
@@ -1300,10 +1297,10 @@
     </row>
     <row r="4" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>55</v>
@@ -1315,10 +1312,10 @@
         <v>56</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>85</v>
       </c>
       <c r="H4" t="s">
         <v>62</v>
@@ -1479,10 +1476,10 @@
     </row>
     <row r="5" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C5" t="s">
         <v>55</v>
@@ -1497,7 +1494,7 @@
         <v>57</v>
       </c>
       <c r="G5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H5" t="s">
         <v>62</v>
@@ -1658,10 +1655,10 @@
     </row>
     <row r="6" spans="1:59" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>55</v>
@@ -1673,7 +1670,7 @@
         <v>56</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>70</v>
@@ -1837,10 +1834,10 @@
     </row>
     <row r="7" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>55</v>
@@ -1852,10 +1849,10 @@
         <v>56</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H7" t="s">
         <v>62</v>
@@ -1924,10 +1921,10 @@
         <v>66</v>
       </c>
       <c r="AD7" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE7" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="AE7" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="AF7" s="2" t="s">
         <v>73</v>
@@ -2016,10 +2013,10 @@
     </row>
     <row r="8" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>55</v>
@@ -2031,10 +2028,10 @@
         <v>56</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H8" t="s">
         <v>62</v>
@@ -2049,7 +2046,7 @@
         <v>56</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M8" s="2" t="s">
         <v>56</v>
@@ -2195,10 +2192,10 @@
     </row>
     <row r="9" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>55</v>
@@ -2210,10 +2207,10 @@
         <v>56</v>
       </c>
       <c r="F9" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>85</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>56</v>
@@ -2374,10 +2371,10 @@
     </row>
     <row r="10" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C10" t="s">
         <v>55</v>
@@ -2389,7 +2386,7 @@
         <v>56</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G10" t="s">
         <v>74</v>
@@ -2553,10 +2550,10 @@
     </row>
     <row r="11" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C11" t="s">
         <v>55</v>
@@ -2568,7 +2565,7 @@
         <v>56</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G11" t="s">
         <v>56</v>
@@ -2732,10 +2729,10 @@
     </row>
     <row r="12" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C12" t="s">
         <v>55</v>
@@ -2747,7 +2744,7 @@
         <v>56</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G12" t="s">
         <v>56</v>
@@ -2911,10 +2908,10 @@
     </row>
     <row r="13" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C13" t="s">
         <v>55</v>
@@ -2926,7 +2923,7 @@
         <v>56</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G13" t="s">
         <v>56</v>
@@ -3090,10 +3087,10 @@
     </row>
     <row r="14" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C14" t="s">
         <v>55</v>
@@ -3105,7 +3102,7 @@
         <v>56</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G14" t="s">
         <v>56</v>
@@ -3269,10 +3266,10 @@
     </row>
     <row r="15" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C15" t="s">
         <v>55</v>
@@ -3284,7 +3281,7 @@
         <v>56</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G15" t="s">
         <v>56</v>
@@ -3448,10 +3445,10 @@
     </row>
     <row r="16" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C16" t="s">
         <v>55</v>
@@ -3463,7 +3460,7 @@
         <v>56</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G16" t="s">
         <v>56</v>
@@ -3627,10 +3624,10 @@
     </row>
     <row r="17" spans="1:59" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C17" t="s">
         <v>55</v>
@@ -3642,7 +3639,7 @@
         <v>56</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G17" t="s">
         <v>56</v>
@@ -3806,10 +3803,10 @@
     </row>
     <row r="18" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C18" t="s">
         <v>55</v>
@@ -3821,7 +3818,7 @@
         <v>56</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G18" t="s">
         <v>56</v>
@@ -3985,10 +3982,10 @@
     </row>
     <row r="19" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C19" t="s">
         <v>55</v>
@@ -4000,19 +3997,19 @@
         <v>56</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="G19" t="s">
         <v>56</v>
       </c>
-      <c r="H19" t="s">
-        <v>62</v>
+      <c r="H19" s="10" t="s">
+        <v>56</v>
       </c>
       <c r="I19" t="s">
         <v>56</v>
       </c>
-      <c r="J19" t="s">
-        <v>63</v>
+      <c r="J19" s="10" t="s">
+        <v>56</v>
       </c>
       <c r="K19" t="s">
         <v>56</v>
@@ -4021,7 +4018,7 @@
         <v>56</v>
       </c>
       <c r="M19" s="6" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="N19" t="s">
         <v>56</v>
@@ -4164,10 +4161,10 @@
     </row>
     <row r="20" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C20" t="s">
         <v>55</v>
@@ -4179,7 +4176,7 @@
         <v>56</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G20" t="s">
         <v>56</v>
@@ -4251,10 +4248,10 @@
         <v>66</v>
       </c>
       <c r="AD20" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE20" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="AE20" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="AF20" t="s">
         <v>56</v>
@@ -4343,10 +4340,10 @@
     </row>
     <row r="21" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C21" t="s">
         <v>55</v>
@@ -4358,7 +4355,7 @@
         <v>56</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G21" t="s">
         <v>56</v>
@@ -4430,10 +4427,10 @@
         <v>66</v>
       </c>
       <c r="AD21" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE21" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="AE21" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="AF21" t="s">
         <v>56</v>
@@ -4549,10 +4546,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1" t="s">
         <v>109</v>
-      </c>
-      <c r="E1" t="s">
-        <v>110</v>
       </c>
       <c r="F1" t="s">
         <v>5</v>
@@ -4701,7 +4698,7 @@
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C2" t="s">
         <v>55</v>

--- a/budget-web-tests/testData/Budget_Anonymous_CA.xlsx
+++ b/budget-web-tests/testData/Budget_Anonymous_CA.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/StatusNeo/Documents/Budget_Framework 25 march/ecom-us-web/budget-web-tests/testData/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/StatusNeo/Documents/Budget branch/ecom-us-web/budget-web-tests/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03A18CAC-E323-4F46-AE51-885E4EE85246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50B20206-4C37-A34A-9DD7-7FDB94C65A5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Budget CA Anonymous" sheetId="3" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1291" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1376" uniqueCount="117">
   <si>
     <t>TestMethodName</t>
   </si>
@@ -230,9 +230,6 @@
     <t>MUZZ012</t>
   </si>
   <si>
-    <t>W852801</t>
-  </si>
-  <si>
     <t>India</t>
   </si>
   <si>
@@ -248,12 +245,6 @@
     <t>Thailand</t>
   </si>
   <si>
-    <t>V4989000</t>
-  </si>
-  <si>
-    <t>test@microsoft.com</t>
-  </si>
-  <si>
     <t>UUZZ011</t>
   </si>
   <si>
@@ -369,6 +360,18 @@
   </si>
   <si>
     <t>ReserveButton</t>
+  </si>
+  <si>
+    <t>ViewModifyCancel</t>
+  </si>
+  <si>
+    <t>UpliftInfo</t>
+  </si>
+  <si>
+    <t>ErrorMessage90</t>
+  </si>
+  <si>
+    <t>PickUplocation1</t>
   </si>
 </sst>
 </file>
@@ -379,12 +382,19 @@
     <numFmt numFmtId="164" formatCode="0;[Red]0"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -443,32 +453,35 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -746,19 +759,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:BG22"/>
+  <dimension ref="A1:BK22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="AF19" sqref="AF19"/>
+    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="AN12" sqref="AN12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24.83203125" customWidth="1"/>
     <col min="2" max="2" width="96.6640625" customWidth="1"/>
+    <col min="33" max="33" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:63" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -924,25 +938,37 @@
       <c r="BC1" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="10" t="s">
+      <c r="BD1" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="BE1" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="BF1" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="BG1" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="BE1" s="10" t="s">
+      <c r="BH1" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="BF1" s="10" t="s">
+      <c r="BI1" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="BG1" s="10" t="s">
+      <c r="BJ1" s="11" t="s">
         <v>115</v>
       </c>
+      <c r="BK1" s="9" t="s">
+        <v>116</v>
+      </c>
     </row>
-    <row r="2" spans="1:59" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
-        <v>111</v>
+    <row r="2" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
+        <v>108</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>55</v>
@@ -954,10 +980,10 @@
         <v>56</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>56</v>
@@ -1103,25 +1129,37 @@
       <c r="BC2" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="BD2" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="BE2" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="BF2" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="BG2" s="10" t="s">
-        <v>67</v>
+      <c r="BD2" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE2" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF2" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="BG2" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="BH2" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="BI2" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="BJ2" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="BK2" s="9" t="s">
+        <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:59" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
-        <v>111</v>
+    <row r="3" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>108</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>55</v>
@@ -1133,10 +1171,10 @@
         <v>56</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H3" t="s">
         <v>62</v>
@@ -1205,10 +1243,10 @@
         <v>66</v>
       </c>
       <c r="AD3" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="AE3" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="AF3" s="2" t="s">
         <v>56</v>
@@ -1282,25 +1320,37 @@
       <c r="BC3" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="BD3" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="BE3" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="BF3" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="BG3" s="10" t="s">
-        <v>67</v>
+      <c r="BD3" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE3" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF3" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="BG3" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="BH3" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="BI3" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="BJ3" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="BK3" s="9" t="s">
+        <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:59" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
-        <v>111</v>
+    <row r="4" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
+        <v>108</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>55</v>
@@ -1312,10 +1362,10 @@
         <v>56</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H4" t="s">
         <v>62</v>
@@ -1461,25 +1511,37 @@
       <c r="BC4" t="s">
         <v>56</v>
       </c>
-      <c r="BD4" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="BE4" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="BF4" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="BG4" s="10" t="s">
-        <v>67</v>
+      <c r="BD4" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE4" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF4" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="BG4" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="BH4" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="BI4" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="BJ4" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="BK4" s="9" t="s">
+        <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:59" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
-        <v>111</v>
+    <row r="5" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
+        <v>108</v>
       </c>
       <c r="B5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C5" t="s">
         <v>55</v>
@@ -1494,7 +1556,7 @@
         <v>57</v>
       </c>
       <c r="G5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H5" t="s">
         <v>62</v>
@@ -1568,11 +1630,11 @@
       <c r="AE5" t="s">
         <v>56</v>
       </c>
-      <c r="AF5" t="s">
-        <v>69</v>
-      </c>
-      <c r="AG5" s="8">
-        <v>112000000000</v>
+      <c r="AF5" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG5" s="10" t="s">
+        <v>56</v>
       </c>
       <c r="AH5" t="s">
         <v>56</v>
@@ -1640,25 +1702,37 @@
       <c r="BC5" t="s">
         <v>56</v>
       </c>
-      <c r="BD5" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="BE5" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="BF5" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="BG5" s="10" t="s">
-        <v>67</v>
+      <c r="BD5" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE5" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF5" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="BG5" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="BH5" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="BI5" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="BJ5" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="BK5" s="9" t="s">
+        <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:59" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
-        <v>111</v>
+    <row r="6" spans="1:63" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>108</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>55</v>
@@ -1670,18 +1744,18 @@
         <v>56</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="H6" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="H6" s="9" t="s">
         <v>56</v>
       </c>
       <c r="I6" t="s">
         <v>56</v>
       </c>
-      <c r="J6" s="10" t="s">
+      <c r="J6" s="9" t="s">
         <v>56</v>
       </c>
       <c r="K6" s="2" t="s">
@@ -1727,16 +1801,16 @@
         <v>1129</v>
       </c>
       <c r="Y6" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z6" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="Z6" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="AA6" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="AB6" s="2" t="s">
-        <v>56</v>
+      <c r="AB6" s="2">
+        <v>123</v>
       </c>
       <c r="AC6" s="2" t="s">
         <v>56</v>
@@ -1748,7 +1822,7 @@
         <v>56</v>
       </c>
       <c r="AF6" s="2" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="AG6" s="2" t="s">
         <v>56</v>
@@ -1771,8 +1845,8 @@
       <c r="AM6" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="AN6" s="10" t="s">
-        <v>76</v>
+      <c r="AN6" s="9" t="s">
+        <v>56</v>
       </c>
       <c r="AO6" s="2" t="s">
         <v>56</v>
@@ -1813,31 +1887,43 @@
       <c r="BA6" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="BB6" s="9" t="s">
-        <v>81</v>
+      <c r="BB6" s="8" t="s">
+        <v>78</v>
       </c>
       <c r="BC6">
         <v>2323</v>
       </c>
-      <c r="BD6" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="BE6" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="BF6" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="BG6" s="10" t="s">
-        <v>67</v>
+      <c r="BD6" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE6" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF6" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="BG6" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="BH6" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="BI6" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="BJ6" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="BK6" s="9" t="s">
+        <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:59" x14ac:dyDescent="0.2">
-      <c r="A7" s="10" t="s">
-        <v>111</v>
+    <row r="7" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
+        <v>108</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>55</v>
@@ -1849,10 +1935,10 @@
         <v>56</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H7" t="s">
         <v>62</v>
@@ -1906,7 +1992,7 @@
         <v>1129</v>
       </c>
       <c r="Y7" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Z7" s="2" t="s">
         <v>56</v>
@@ -1921,13 +2007,13 @@
         <v>66</v>
       </c>
       <c r="AD7" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="AE7" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="AF7" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AG7" s="2">
         <v>38298026</v>
@@ -1993,30 +2079,42 @@
         <v>56</v>
       </c>
       <c r="BB7" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="BC7" s="2">
         <v>2323</v>
       </c>
-      <c r="BD7" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="BE7" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="BF7" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="BG7" s="10" t="s">
-        <v>67</v>
+      <c r="BD7" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE7" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF7" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="BG7" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="BH7" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="BI7" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="BJ7" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="BK7" s="9" t="s">
+        <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:59" x14ac:dyDescent="0.2">
-      <c r="A8" s="10" t="s">
-        <v>111</v>
+    <row r="8" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>108</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>55</v>
@@ -2028,10 +2126,10 @@
         <v>56</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H8" t="s">
         <v>62</v>
@@ -2046,7 +2144,7 @@
         <v>56</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="M8" s="2" t="s">
         <v>56</v>
@@ -2106,7 +2204,7 @@
         <v>56</v>
       </c>
       <c r="AF8" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AG8" s="2">
         <v>38298026</v>
@@ -2172,30 +2270,42 @@
         <v>56</v>
       </c>
       <c r="BB8" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="BC8" s="2">
         <v>2323</v>
       </c>
-      <c r="BD8" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="BE8" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="BF8" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="BG8" s="10" t="s">
-        <v>67</v>
+      <c r="BD8" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE8" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF8" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="BG8" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="BH8" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="BI8" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="BJ8" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="BK8" s="9" t="s">
+        <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:59" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
-        <v>111</v>
+    <row r="9" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
+        <v>108</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>55</v>
@@ -2207,10 +2317,10 @@
         <v>56</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>56</v>
@@ -2351,30 +2461,42 @@
         <v>56</v>
       </c>
       <c r="BB9" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="BC9" s="2">
         <v>2323</v>
       </c>
-      <c r="BD9" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="BE9" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="BF9" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="BG9" s="10" t="s">
-        <v>67</v>
+      <c r="BD9" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE9" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF9" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="BG9" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="BH9" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="BI9" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="BJ9" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="BK9" s="9" t="s">
+        <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:59" x14ac:dyDescent="0.2">
-      <c r="A10" s="10" t="s">
-        <v>111</v>
+    <row r="10" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
+        <v>108</v>
       </c>
       <c r="B10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C10" t="s">
         <v>55</v>
@@ -2386,10 +2508,10 @@
         <v>56</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H10" t="s">
         <v>62</v>
@@ -2530,30 +2652,42 @@
         <v>56</v>
       </c>
       <c r="BB10" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="BC10" s="2">
         <v>2323</v>
       </c>
-      <c r="BD10" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="BE10" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="BF10" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="BG10" s="10" t="s">
-        <v>67</v>
+      <c r="BD10" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE10" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF10" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="BG10" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="BH10" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="BI10" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="BJ10" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="BK10" s="9" t="s">
+        <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:59" x14ac:dyDescent="0.2">
-      <c r="A11" s="10" t="s">
-        <v>111</v>
+    <row r="11" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
+        <v>108</v>
       </c>
       <c r="B11" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C11" t="s">
         <v>55</v>
@@ -2565,18 +2699,18 @@
         <v>56</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G11" t="s">
         <v>56</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="H11" s="9" t="s">
         <v>56</v>
       </c>
       <c r="I11" t="s">
         <v>56</v>
       </c>
-      <c r="J11" s="10" t="s">
+      <c r="J11" s="9" t="s">
         <v>56</v>
       </c>
       <c r="K11" t="s">
@@ -2642,8 +2776,8 @@
       <c r="AE11" t="s">
         <v>56</v>
       </c>
-      <c r="AF11" t="s">
-        <v>75</v>
+      <c r="AF11" s="9" t="s">
+        <v>56</v>
       </c>
       <c r="AG11" t="s">
         <v>56</v>
@@ -2666,8 +2800,8 @@
       <c r="AM11" t="s">
         <v>56</v>
       </c>
-      <c r="AN11" t="s">
-        <v>76</v>
+      <c r="AN11" s="9" t="s">
+        <v>56</v>
       </c>
       <c r="AO11" t="s">
         <v>56</v>
@@ -2709,30 +2843,42 @@
         <v>56</v>
       </c>
       <c r="BB11" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="BC11" s="2">
         <v>2323</v>
       </c>
-      <c r="BD11" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="BE11" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="BF11" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="BG11" s="10" t="s">
-        <v>67</v>
+      <c r="BD11" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE11" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF11" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="BG11" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="BH11" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="BI11" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="BJ11" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="BK11" s="9" t="s">
+        <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:59" x14ac:dyDescent="0.2">
-      <c r="A12" s="10" t="s">
-        <v>111</v>
+    <row r="12" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
+        <v>108</v>
       </c>
       <c r="B12" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C12" t="s">
         <v>55</v>
@@ -2744,7 +2890,7 @@
         <v>56</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G12" t="s">
         <v>56</v>
@@ -2764,8 +2910,8 @@
       <c r="L12" t="s">
         <v>56</v>
       </c>
-      <c r="M12" s="10" t="s">
-        <v>77</v>
+      <c r="M12" s="9" t="s">
+        <v>74</v>
       </c>
       <c r="N12" t="s">
         <v>56</v>
@@ -2888,30 +3034,42 @@
         <v>56</v>
       </c>
       <c r="BB12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="BC12">
         <v>2323</v>
       </c>
-      <c r="BD12" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="BE12" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="BF12" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="BG12" s="10" t="s">
-        <v>67</v>
+      <c r="BD12" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE12" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF12" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="BG12" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="BH12" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="BI12" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="BJ12" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="BK12" s="9" t="s">
+        <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:59" x14ac:dyDescent="0.2">
-      <c r="A13" s="10" t="s">
-        <v>111</v>
+    <row r="13" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="A13" s="9" t="s">
+        <v>108</v>
       </c>
       <c r="B13" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C13" t="s">
         <v>55</v>
@@ -2923,7 +3081,7 @@
         <v>56</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G13" t="s">
         <v>56</v>
@@ -3000,11 +3158,11 @@
       <c r="AE13" t="s">
         <v>56</v>
       </c>
-      <c r="AF13" t="s">
-        <v>69</v>
-      </c>
-      <c r="AG13" s="8">
-        <v>112000000000</v>
+      <c r="AF13" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG13" s="10" t="s">
+        <v>56</v>
       </c>
       <c r="AH13" t="s">
         <v>56</v>
@@ -3067,30 +3225,42 @@
         <v>56</v>
       </c>
       <c r="BB13" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="BC13" s="2">
         <v>2323</v>
       </c>
-      <c r="BD13" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="BE13" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="BF13" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="BG13" s="10" t="s">
-        <v>67</v>
+      <c r="BD13" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE13" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF13" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="BG13" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="BH13" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="BI13" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="BJ13" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="BK13" s="9" t="s">
+        <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:59" x14ac:dyDescent="0.2">
-      <c r="A14" s="10" t="s">
-        <v>111</v>
+    <row r="14" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
+        <v>108</v>
       </c>
       <c r="B14" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C14" t="s">
         <v>55</v>
@@ -3102,7 +3272,7 @@
         <v>56</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G14" t="s">
         <v>56</v>
@@ -3246,30 +3416,42 @@
         <v>56</v>
       </c>
       <c r="BB14" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="BC14" s="2">
         <v>2323</v>
       </c>
-      <c r="BD14" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="BE14" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="BF14" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="BG14" s="10" t="s">
-        <v>67</v>
+      <c r="BD14" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE14" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF14" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="BG14" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="BH14" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="BI14" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="BJ14" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="BK14" s="9" t="s">
+        <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:59" x14ac:dyDescent="0.2">
-      <c r="A15" s="10" t="s">
-        <v>111</v>
+    <row r="15" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="A15" s="9" t="s">
+        <v>108</v>
       </c>
       <c r="B15" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C15" t="s">
         <v>55</v>
@@ -3281,7 +3463,7 @@
         <v>56</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G15" t="s">
         <v>56</v>
@@ -3425,30 +3607,42 @@
         <v>56</v>
       </c>
       <c r="BB15" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="BC15" s="2">
         <v>2323</v>
       </c>
-      <c r="BD15" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="BE15" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="BF15" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="BG15" s="10" t="s">
-        <v>67</v>
+      <c r="BD15" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE15" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF15" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="BG15" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="BH15" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="BI15" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="BJ15" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="BK15" s="9" t="s">
+        <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:59" x14ac:dyDescent="0.2">
-      <c r="A16" s="10" t="s">
-        <v>111</v>
+    <row r="16" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="A16" s="9" t="s">
+        <v>108</v>
       </c>
       <c r="B16" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C16" t="s">
         <v>55</v>
@@ -3460,19 +3654,19 @@
         <v>56</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G16" t="s">
         <v>56</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I16" t="s">
         <v>56</v>
       </c>
       <c r="J16" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K16" t="s">
         <v>56</v>
@@ -3483,8 +3677,8 @@
       <c r="M16" t="s">
         <v>56</v>
       </c>
-      <c r="N16" s="10" t="s">
-        <v>80</v>
+      <c r="N16" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="O16" t="s">
         <v>56</v>
@@ -3604,30 +3798,42 @@
         <v>56</v>
       </c>
       <c r="BB16" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="BC16" s="2">
         <v>2323</v>
       </c>
-      <c r="BD16" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="BE16" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="BF16" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="BG16" s="10" t="s">
-        <v>67</v>
+      <c r="BD16" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE16" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF16" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="BG16" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="BH16" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="BI16" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="BJ16" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="BK16" s="9" t="s">
+        <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:59" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="10" t="s">
-        <v>111</v>
+    <row r="17" spans="1:63" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="9" t="s">
+        <v>108</v>
       </c>
       <c r="B17" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C17" t="s">
         <v>55</v>
@@ -3639,7 +3845,7 @@
         <v>56</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G17" t="s">
         <v>56</v>
@@ -3717,7 +3923,7 @@
         <v>56</v>
       </c>
       <c r="AF17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AG17">
         <v>38298026</v>
@@ -3782,31 +3988,43 @@
       <c r="BA17" t="s">
         <v>56</v>
       </c>
-      <c r="BB17" s="9" t="s">
-        <v>81</v>
+      <c r="BB17" s="8" t="s">
+        <v>78</v>
       </c>
       <c r="BC17">
         <v>2323</v>
       </c>
-      <c r="BD17" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="BE17" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="BF17" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="BG17" s="10" t="s">
-        <v>67</v>
+      <c r="BD17" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE17" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF17" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="BG17" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="BH17" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="BI17" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="BJ17" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="BK17" s="9" t="s">
+        <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:59" x14ac:dyDescent="0.2">
-      <c r="A18" s="10" t="s">
-        <v>111</v>
+    <row r="18" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="A18" s="9" t="s">
+        <v>108</v>
       </c>
       <c r="B18" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C18" t="s">
         <v>55</v>
@@ -3818,7 +4036,7 @@
         <v>56</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G18" t="s">
         <v>56</v>
@@ -3962,30 +4180,42 @@
         <v>56</v>
       </c>
       <c r="BB18" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="BC18" s="2">
         <v>2323</v>
       </c>
-      <c r="BD18" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="BE18" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="BF18" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="BG18" s="10" t="s">
-        <v>67</v>
+      <c r="BD18" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE18" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF18" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="BG18" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="BH18" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="BI18" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="BJ18" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="BK18" s="9" t="s">
+        <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:59" x14ac:dyDescent="0.2">
-      <c r="A19" s="10" t="s">
-        <v>111</v>
+    <row r="19" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="A19" s="9" t="s">
+        <v>108</v>
       </c>
       <c r="B19" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C19" t="s">
         <v>55</v>
@@ -3997,18 +4227,18 @@
         <v>56</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G19" t="s">
         <v>56</v>
       </c>
-      <c r="H19" s="10" t="s">
+      <c r="H19" s="9" t="s">
         <v>56</v>
       </c>
       <c r="I19" t="s">
         <v>56</v>
       </c>
-      <c r="J19" s="10" t="s">
+      <c r="J19" s="9" t="s">
         <v>56</v>
       </c>
       <c r="K19" t="s">
@@ -4018,7 +4248,7 @@
         <v>56</v>
       </c>
       <c r="M19" s="6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="N19" t="s">
         <v>56</v>
@@ -4141,30 +4371,42 @@
         <v>56</v>
       </c>
       <c r="BB19" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="BC19" s="2">
         <v>2323</v>
       </c>
-      <c r="BD19" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="BE19" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="BF19" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="BG19" s="10" t="s">
-        <v>67</v>
+      <c r="BD19" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE19" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF19" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="BG19" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="BH19" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="BI19" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="BJ19" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="BK19" s="9" t="s">
+        <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:59" x14ac:dyDescent="0.2">
-      <c r="A20" s="10" t="s">
-        <v>111</v>
+    <row r="20" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="A20" s="9" t="s">
+        <v>108</v>
       </c>
       <c r="B20" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C20" t="s">
         <v>55</v>
@@ -4176,7 +4418,7 @@
         <v>56</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G20" t="s">
         <v>56</v>
@@ -4248,10 +4490,10 @@
         <v>66</v>
       </c>
       <c r="AD20" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="AE20" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="AF20" t="s">
         <v>56</v>
@@ -4268,7 +4510,7 @@
       <c r="AJ20" t="s">
         <v>56</v>
       </c>
-      <c r="AK20" s="10" t="s">
+      <c r="AK20" s="9" t="s">
         <v>56</v>
       </c>
       <c r="AL20" t="s">
@@ -4320,30 +4562,42 @@
         <v>56</v>
       </c>
       <c r="BB20" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="BC20" s="2">
         <v>2323</v>
       </c>
-      <c r="BD20" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="BE20" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="BF20" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="BG20" s="10" t="s">
-        <v>67</v>
+      <c r="BD20" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE20" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF20" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="BG20" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="BH20" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="BI20" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="BJ20" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="BK20" s="9" t="s">
+        <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:59" x14ac:dyDescent="0.2">
-      <c r="A21" s="10" t="s">
-        <v>111</v>
+    <row r="21" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="A21" s="9" t="s">
+        <v>108</v>
       </c>
       <c r="B21" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C21" t="s">
         <v>55</v>
@@ -4355,7 +4609,7 @@
         <v>56</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G21" t="s">
         <v>56</v>
@@ -4427,10 +4681,10 @@
         <v>66</v>
       </c>
       <c r="AD21" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="AE21" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="AF21" t="s">
         <v>56</v>
@@ -4447,7 +4701,7 @@
       <c r="AJ21" t="s">
         <v>56</v>
       </c>
-      <c r="AK21" s="10" t="s">
+      <c r="AK21" s="9" t="s">
         <v>56</v>
       </c>
       <c r="AL21" t="s">
@@ -4499,25 +4753,37 @@
         <v>56</v>
       </c>
       <c r="BB21" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="BC21" s="2">
         <v>2323</v>
       </c>
-      <c r="BD21" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="BE21" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="BF21" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="BG21" s="10" t="s">
-        <v>67</v>
+      <c r="BD21" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE21" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF21" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="BG21" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="BH21" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="BI21" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="BJ21" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="BK21" s="9" t="s">
+        <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:63" x14ac:dyDescent="0.2">
       <c r="F22" s="2"/>
     </row>
   </sheetData>
@@ -4546,10 +4812,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F1" t="s">
         <v>5</v>
@@ -4698,7 +4964,7 @@
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C2" t="s">
         <v>55</v>

--- a/budget-web-tests/testData/Budget_Anonymous_CA.xlsx
+++ b/budget-web-tests/testData/Budget_Anonymous_CA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10409"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/StatusNeo/Documents/Budget branch/ecom-us-web/budget-web-tests/testData/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/StatusNeo/Desktop/Budget_Payless 27 Apr/ecom-us-web/budget-web-tests/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50B20206-4C37-A34A-9DD7-7FDB94C65A5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C4636DC-3A14-AF40-B909-DA8B3CF5F981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1376" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1520" uniqueCount="124">
   <si>
     <t>TestMethodName</t>
   </si>
@@ -372,6 +372,27 @@
   </si>
   <si>
     <t>PickUplocation1</t>
+  </si>
+  <si>
+    <t>CreditCardType</t>
+  </si>
+  <si>
+    <t>ErrorMessageVerify</t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>FrequentTravellerProgram</t>
+  </si>
+  <si>
+    <t>UpliftMobile</t>
+  </si>
+  <si>
+    <t>UpliftBirthDate</t>
+  </si>
+  <si>
+    <t>Paynow</t>
   </si>
 </sst>
 </file>
@@ -382,12 +403,19 @@
     <numFmt numFmtId="164" formatCode="0;[Red]0"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -430,6 +458,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -453,35 +488,46 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -759,20 +805,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:BK22"/>
+  <dimension ref="A1:BR22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="AN12" sqref="AN12"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="W21" sqref="W21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24.83203125" customWidth="1"/>
     <col min="2" max="2" width="96.6640625" customWidth="1"/>
+    <col min="23" max="23" width="17" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:70" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -938,33 +985,54 @@
       <c r="BC1" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="9" t="s">
+      <c r="BD1" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="BE1" s="9" t="s">
+      <c r="BE1" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="BF1" s="9" t="s">
+      <c r="BF1" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="BG1" s="9" t="s">
+      <c r="BG1" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="BH1" s="11" t="s">
+      <c r="BH1" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="BI1" s="11" t="s">
+      <c r="BI1" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="BJ1" s="11" t="s">
+      <c r="BJ1" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="BK1" s="9" t="s">
+      <c r="BK1" s="8" t="s">
         <v>116</v>
       </c>
+      <c r="BL1" t="s">
+        <v>117</v>
+      </c>
+      <c r="BM1" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="BN1" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="BO1" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="BP1" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="BQ1" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="BR1" s="12" t="s">
+        <v>123</v>
+      </c>
     </row>
-    <row r="2" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
         <v>108</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1129,33 +1197,54 @@
       <c r="BC2" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="BD2" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="BE2" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="BF2" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="BG2" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="BH2" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="BI2" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="BJ2" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="BK2" s="9" t="s">
+      <c r="BD2" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE2" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF2" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="BG2" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="BH2" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="BI2" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="BJ2" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="BK2" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="BL2" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="BM2" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="BN2" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BR2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
         <v>108</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1221,8 +1310,8 @@
       <c r="V3" s="4">
         <v>9840000000</v>
       </c>
-      <c r="W3" s="2" t="s">
-        <v>56</v>
+      <c r="W3" s="3">
+        <v>342000000000000</v>
       </c>
       <c r="X3" s="2">
         <v>1129</v>
@@ -1320,33 +1409,54 @@
       <c r="BC3" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="BD3" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="BE3" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="BF3" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="BG3" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="BH3" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="BI3" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="BJ3" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="BK3" s="9" t="s">
+      <c r="BD3" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE3" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF3" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="BG3" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="BH3" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="BI3" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="BJ3" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="BK3" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="BL3" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="BM3" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="BN3" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="BO3" t="s">
+        <v>56</v>
+      </c>
+      <c r="BP3" t="s">
+        <v>56</v>
+      </c>
+      <c r="BQ3" t="s">
+        <v>56</v>
+      </c>
+      <c r="BR3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
         <v>108</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1511,33 +1621,54 @@
       <c r="BC4" t="s">
         <v>56</v>
       </c>
-      <c r="BD4" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="BE4" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="BF4" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="BG4" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="BH4" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="BI4" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="BJ4" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="BK4" s="9" t="s">
+      <c r="BD4" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE4" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF4" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="BG4" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="BH4" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="BI4" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="BJ4" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="BK4" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="BL4" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="BM4" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="BN4" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="BO4" t="s">
+        <v>56</v>
+      </c>
+      <c r="BP4" t="s">
+        <v>56</v>
+      </c>
+      <c r="BQ4" t="s">
+        <v>56</v>
+      </c>
+      <c r="BR4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
         <v>108</v>
       </c>
       <c r="B5" t="s">
@@ -1630,10 +1761,10 @@
       <c r="AE5" t="s">
         <v>56</v>
       </c>
-      <c r="AF5" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="AG5" s="10" t="s">
+      <c r="AF5" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG5" s="9" t="s">
         <v>56</v>
       </c>
       <c r="AH5" t="s">
@@ -1702,33 +1833,54 @@
       <c r="BC5" t="s">
         <v>56</v>
       </c>
-      <c r="BD5" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="BE5" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="BF5" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="BG5" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="BH5" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="BI5" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="BJ5" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="BK5" s="9" t="s">
+      <c r="BD5" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE5" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF5" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="BG5" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="BH5" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="BI5" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="BJ5" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="BK5" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="BL5" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="BM5" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="BN5" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="BO5" t="s">
+        <v>56</v>
+      </c>
+      <c r="BP5" t="s">
+        <v>56</v>
+      </c>
+      <c r="BQ5" t="s">
+        <v>56</v>
+      </c>
+      <c r="BR5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:63" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
+    <row r="6" spans="1:70" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
         <v>108</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -1749,13 +1901,13 @@
       <c r="G6" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="8" t="s">
         <v>56</v>
       </c>
       <c r="I6" t="s">
         <v>56</v>
       </c>
-      <c r="J6" s="9" t="s">
+      <c r="J6" s="8" t="s">
         <v>56</v>
       </c>
       <c r="K6" s="2" t="s">
@@ -1794,7 +1946,7 @@
       <c r="V6" s="4">
         <v>9840000000</v>
       </c>
-      <c r="W6" s="7">
+      <c r="W6" s="3">
         <v>342000000000000</v>
       </c>
       <c r="X6" s="2">
@@ -1845,7 +1997,7 @@
       <c r="AM6" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="AN6" s="9" t="s">
+      <c r="AN6" s="8" t="s">
         <v>56</v>
       </c>
       <c r="AO6" s="2" t="s">
@@ -1887,39 +2039,60 @@
       <c r="BA6" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="BB6" s="8" t="s">
+      <c r="BB6" s="7" t="s">
         <v>78</v>
       </c>
       <c r="BC6">
         <v>2323</v>
       </c>
-      <c r="BD6" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="BE6" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="BF6" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="BG6" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="BH6" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="BI6" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="BJ6" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="BK6" s="9" t="s">
+      <c r="BD6" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE6" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF6" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="BG6" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="BH6" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="BI6" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="BJ6" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="BK6" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="BL6" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="BM6" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="BN6" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="BO6" t="s">
+        <v>56</v>
+      </c>
+      <c r="BP6" t="s">
+        <v>56</v>
+      </c>
+      <c r="BQ6" t="s">
+        <v>56</v>
+      </c>
+      <c r="BR6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="A7" s="9" t="s">
+    <row r="7" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
         <v>108</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -1985,7 +2158,7 @@
       <c r="V7" s="4">
         <v>9840000000</v>
       </c>
-      <c r="W7" s="7">
+      <c r="W7" s="3">
         <v>342000000000000</v>
       </c>
       <c r="X7" s="2">
@@ -2084,33 +2257,54 @@
       <c r="BC7" s="2">
         <v>2323</v>
       </c>
-      <c r="BD7" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="BE7" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="BF7" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="BG7" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="BH7" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="BI7" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="BJ7" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="BK7" s="9" t="s">
+      <c r="BD7" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE7" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF7" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="BG7" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="BH7" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="BI7" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="BJ7" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="BK7" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="BL7" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="BM7" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="BN7" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="BO7" t="s">
+        <v>56</v>
+      </c>
+      <c r="BP7" t="s">
+        <v>56</v>
+      </c>
+      <c r="BQ7" t="s">
+        <v>56</v>
+      </c>
+      <c r="BR7" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
+    <row r="8" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
         <v>108</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -2275,33 +2469,54 @@
       <c r="BC8" s="2">
         <v>2323</v>
       </c>
-      <c r="BD8" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="BE8" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="BF8" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="BG8" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="BH8" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="BI8" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="BJ8" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="BK8" s="9" t="s">
+      <c r="BD8" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE8" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF8" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="BG8" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="BH8" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="BI8" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="BJ8" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="BK8" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="BL8" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="BM8" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="BN8" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="BO8" t="s">
+        <v>56</v>
+      </c>
+      <c r="BP8" t="s">
+        <v>56</v>
+      </c>
+      <c r="BQ8" t="s">
+        <v>56</v>
+      </c>
+      <c r="BR8" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
+    <row r="9" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
         <v>108</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -2466,33 +2681,54 @@
       <c r="BC9" s="2">
         <v>2323</v>
       </c>
-      <c r="BD9" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="BE9" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="BF9" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="BG9" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="BH9" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="BI9" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="BJ9" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="BK9" s="9" t="s">
+      <c r="BD9" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE9" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF9" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="BG9" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="BH9" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="BI9" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="BJ9" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="BK9" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="BL9" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="BM9" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="BN9" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="BO9" t="s">
+        <v>56</v>
+      </c>
+      <c r="BP9" t="s">
+        <v>56</v>
+      </c>
+      <c r="BQ9" t="s">
+        <v>56</v>
+      </c>
+      <c r="BR9" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="A10" s="9" t="s">
+    <row r="10" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
         <v>108</v>
       </c>
       <c r="B10" t="s">
@@ -2657,33 +2893,54 @@
       <c r="BC10" s="2">
         <v>2323</v>
       </c>
-      <c r="BD10" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="BE10" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="BF10" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="BG10" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="BH10" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="BI10" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="BJ10" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="BK10" s="9" t="s">
+      <c r="BD10" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE10" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF10" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="BG10" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="BH10" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="BI10" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="BJ10" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="BK10" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="BL10" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="BM10" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="BN10" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="BO10" t="s">
+        <v>56</v>
+      </c>
+      <c r="BP10" t="s">
+        <v>56</v>
+      </c>
+      <c r="BQ10" t="s">
+        <v>56</v>
+      </c>
+      <c r="BR10" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="A11" s="9" t="s">
+    <row r="11" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
         <v>108</v>
       </c>
       <c r="B11" t="s">
@@ -2704,13 +2961,13 @@
       <c r="G11" t="s">
         <v>56</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="H11" s="8" t="s">
         <v>56</v>
       </c>
       <c r="I11" t="s">
         <v>56</v>
       </c>
-      <c r="J11" s="9" t="s">
+      <c r="J11" s="8" t="s">
         <v>56</v>
       </c>
       <c r="K11" t="s">
@@ -2776,7 +3033,7 @@
       <c r="AE11" t="s">
         <v>56</v>
       </c>
-      <c r="AF11" s="9" t="s">
+      <c r="AF11" s="8" t="s">
         <v>56</v>
       </c>
       <c r="AG11" t="s">
@@ -2800,7 +3057,7 @@
       <c r="AM11" t="s">
         <v>56</v>
       </c>
-      <c r="AN11" s="9" t="s">
+      <c r="AN11" s="8" t="s">
         <v>56</v>
       </c>
       <c r="AO11" t="s">
@@ -2848,33 +3105,54 @@
       <c r="BC11" s="2">
         <v>2323</v>
       </c>
-      <c r="BD11" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="BE11" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="BF11" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="BG11" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="BH11" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="BI11" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="BJ11" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="BK11" s="9" t="s">
+      <c r="BD11" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE11" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF11" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="BG11" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="BH11" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="BI11" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="BJ11" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="BK11" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="BL11" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="BM11" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="BN11" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="BO11" t="s">
+        <v>56</v>
+      </c>
+      <c r="BP11" t="s">
+        <v>56</v>
+      </c>
+      <c r="BQ11" t="s">
+        <v>56</v>
+      </c>
+      <c r="BR11" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="A12" s="9" t="s">
+    <row r="12" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="A12" s="8" t="s">
         <v>108</v>
       </c>
       <c r="B12" t="s">
@@ -2910,7 +3188,7 @@
       <c r="L12" t="s">
         <v>56</v>
       </c>
-      <c r="M12" s="9" t="s">
+      <c r="M12" s="8" t="s">
         <v>74</v>
       </c>
       <c r="N12" t="s">
@@ -3039,33 +3317,54 @@
       <c r="BC12">
         <v>2323</v>
       </c>
-      <c r="BD12" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="BE12" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="BF12" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="BG12" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="BH12" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="BI12" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="BJ12" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="BK12" s="9" t="s">
+      <c r="BD12" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE12" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF12" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="BG12" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="BH12" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="BI12" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="BJ12" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="BK12" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="BL12" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="BM12" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="BN12" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="BO12" t="s">
+        <v>56</v>
+      </c>
+      <c r="BP12" t="s">
+        <v>56</v>
+      </c>
+      <c r="BQ12" t="s">
+        <v>56</v>
+      </c>
+      <c r="BR12" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="A13" s="9" t="s">
+    <row r="13" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
         <v>108</v>
       </c>
       <c r="B13" t="s">
@@ -3158,10 +3457,10 @@
       <c r="AE13" t="s">
         <v>56</v>
       </c>
-      <c r="AF13" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="AG13" s="10" t="s">
+      <c r="AF13" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG13" s="9" t="s">
         <v>56</v>
       </c>
       <c r="AH13" t="s">
@@ -3230,33 +3529,54 @@
       <c r="BC13" s="2">
         <v>2323</v>
       </c>
-      <c r="BD13" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="BE13" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="BF13" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="BG13" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="BH13" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="BI13" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="BJ13" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="BK13" s="9" t="s">
+      <c r="BD13" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE13" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF13" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="BG13" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="BH13" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="BI13" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="BJ13" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="BK13" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="BL13" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="BM13" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="BN13" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="BO13" t="s">
+        <v>56</v>
+      </c>
+      <c r="BP13" t="s">
+        <v>56</v>
+      </c>
+      <c r="BQ13" t="s">
+        <v>56</v>
+      </c>
+      <c r="BR13" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="A14" s="9" t="s">
+    <row r="14" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="A14" s="8" t="s">
         <v>108</v>
       </c>
       <c r="B14" t="s">
@@ -3421,33 +3741,54 @@
       <c r="BC14" s="2">
         <v>2323</v>
       </c>
-      <c r="BD14" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="BE14" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="BF14" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="BG14" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="BH14" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="BI14" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="BJ14" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="BK14" s="9" t="s">
+      <c r="BD14" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE14" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF14" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="BG14" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="BH14" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="BI14" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="BJ14" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="BK14" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="BL14" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="BM14" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="BN14" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="BO14" t="s">
+        <v>56</v>
+      </c>
+      <c r="BP14" t="s">
+        <v>56</v>
+      </c>
+      <c r="BQ14" t="s">
+        <v>56</v>
+      </c>
+      <c r="BR14" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="A15" s="9" t="s">
+    <row r="15" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
         <v>108</v>
       </c>
       <c r="B15" t="s">
@@ -3612,33 +3953,54 @@
       <c r="BC15" s="2">
         <v>2323</v>
       </c>
-      <c r="BD15" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="BE15" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="BF15" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="BG15" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="BH15" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="BI15" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="BJ15" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="BK15" s="9" t="s">
+      <c r="BD15" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE15" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF15" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="BG15" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="BH15" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="BI15" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="BJ15" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="BK15" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="BL15" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="BM15" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="BN15" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="BO15" t="s">
+        <v>56</v>
+      </c>
+      <c r="BP15" t="s">
+        <v>56</v>
+      </c>
+      <c r="BQ15" t="s">
+        <v>56</v>
+      </c>
+      <c r="BR15" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="A16" s="9" t="s">
+    <row r="16" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="A16" s="8" t="s">
         <v>108</v>
       </c>
       <c r="B16" t="s">
@@ -3677,7 +4039,7 @@
       <c r="M16" t="s">
         <v>56</v>
       </c>
-      <c r="N16" s="9" t="s">
+      <c r="N16" s="8" t="s">
         <v>77</v>
       </c>
       <c r="O16" t="s">
@@ -3803,33 +4165,54 @@
       <c r="BC16" s="2">
         <v>2323</v>
       </c>
-      <c r="BD16" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="BE16" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="BF16" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="BG16" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="BH16" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="BI16" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="BJ16" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="BK16" s="9" t="s">
+      <c r="BD16" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE16" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF16" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="BG16" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="BH16" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="BI16" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="BJ16" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="BK16" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="BL16" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="BM16" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="BN16" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="BO16" t="s">
+        <v>56</v>
+      </c>
+      <c r="BP16" t="s">
+        <v>56</v>
+      </c>
+      <c r="BQ16" t="s">
+        <v>56</v>
+      </c>
+      <c r="BR16" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:63" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="9" t="s">
+    <row r="17" spans="1:70" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
         <v>108</v>
       </c>
       <c r="B17" t="s">
@@ -3988,39 +4371,60 @@
       <c r="BA17" t="s">
         <v>56</v>
       </c>
-      <c r="BB17" s="8" t="s">
+      <c r="BB17" s="7" t="s">
         <v>78</v>
       </c>
       <c r="BC17">
         <v>2323</v>
       </c>
-      <c r="BD17" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="BE17" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="BF17" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="BG17" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="BH17" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="BI17" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="BJ17" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="BK17" s="9" t="s">
+      <c r="BD17" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE17" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF17" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="BG17" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="BH17" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="BI17" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="BJ17" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="BK17" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="BL17" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="BM17" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="BN17" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="BO17" t="s">
+        <v>56</v>
+      </c>
+      <c r="BP17" t="s">
+        <v>56</v>
+      </c>
+      <c r="BQ17" t="s">
+        <v>56</v>
+      </c>
+      <c r="BR17" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="A18" s="9" t="s">
+    <row r="18" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="A18" s="8" t="s">
         <v>108</v>
       </c>
       <c r="B18" t="s">
@@ -4185,33 +4589,54 @@
       <c r="BC18" s="2">
         <v>2323</v>
       </c>
-      <c r="BD18" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="BE18" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="BF18" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="BG18" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="BH18" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="BI18" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="BJ18" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="BK18" s="9" t="s">
+      <c r="BD18" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE18" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF18" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="BG18" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="BH18" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="BI18" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="BJ18" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="BK18" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="BL18" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="BM18" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="BN18" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="BO18" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="BP18" t="s">
+        <v>56</v>
+      </c>
+      <c r="BQ18" t="s">
+        <v>56</v>
+      </c>
+      <c r="BR18" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="A19" s="9" t="s">
+    <row r="19" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="A19" s="8" t="s">
         <v>108</v>
       </c>
       <c r="B19" t="s">
@@ -4232,13 +4657,13 @@
       <c r="G19" t="s">
         <v>56</v>
       </c>
-      <c r="H19" s="9" t="s">
+      <c r="H19" s="8" t="s">
         <v>56</v>
       </c>
       <c r="I19" t="s">
         <v>56</v>
       </c>
-      <c r="J19" s="9" t="s">
+      <c r="J19" s="8" t="s">
         <v>56</v>
       </c>
       <c r="K19" t="s">
@@ -4376,33 +4801,54 @@
       <c r="BC19" s="2">
         <v>2323</v>
       </c>
-      <c r="BD19" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="BE19" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="BF19" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="BG19" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="BH19" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="BI19" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="BJ19" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="BK19" s="9" t="s">
+      <c r="BD19" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE19" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF19" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="BG19" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="BH19" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="BI19" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="BJ19" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="BK19" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="BL19" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="BM19" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="BN19" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="BO19" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="BP19" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="BQ19" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="BR19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="A20" s="9" t="s">
+    <row r="20" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="A20" s="8" t="s">
         <v>108</v>
       </c>
       <c r="B20" t="s">
@@ -4468,8 +4914,8 @@
       <c r="V20" s="3">
         <v>9838234567</v>
       </c>
-      <c r="W20" t="s">
-        <v>56</v>
+      <c r="W20" s="3">
+        <v>342000000000000</v>
       </c>
       <c r="X20">
         <v>1129</v>
@@ -4510,7 +4956,7 @@
       <c r="AJ20" t="s">
         <v>56</v>
       </c>
-      <c r="AK20" s="9" t="s">
+      <c r="AK20" s="8" t="s">
         <v>56</v>
       </c>
       <c r="AL20" t="s">
@@ -4567,33 +5013,54 @@
       <c r="BC20" s="2">
         <v>2323</v>
       </c>
-      <c r="BD20" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="BE20" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="BF20" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="BG20" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="BH20" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="BI20" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="BJ20" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="BK20" s="9" t="s">
+      <c r="BD20" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE20" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF20" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="BG20" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="BH20" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="BI20" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="BJ20" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="BK20" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="BL20" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="BM20" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="BN20" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="BO20" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="BP20" t="s">
+        <v>56</v>
+      </c>
+      <c r="BQ20" t="s">
+        <v>56</v>
+      </c>
+      <c r="BR20" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="A21" s="9" t="s">
+    <row r="21" spans="1:70" x14ac:dyDescent="0.2">
+      <c r="A21" s="8" t="s">
         <v>108</v>
       </c>
       <c r="B21" t="s">
@@ -4659,8 +5126,8 @@
       <c r="V21" s="3">
         <v>9838234567</v>
       </c>
-      <c r="W21" t="s">
-        <v>56</v>
+      <c r="W21" s="3">
+        <v>342000000000000</v>
       </c>
       <c r="X21">
         <v>1129</v>
@@ -4701,7 +5168,7 @@
       <c r="AJ21" t="s">
         <v>56</v>
       </c>
-      <c r="AK21" s="9" t="s">
+      <c r="AK21" s="8" t="s">
         <v>56</v>
       </c>
       <c r="AL21" t="s">
@@ -4758,32 +5225,53 @@
       <c r="BC21" s="2">
         <v>2323</v>
       </c>
-      <c r="BD21" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="BE21" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="BF21" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="BG21" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="BH21" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="BI21" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="BJ21" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="BK21" s="9" t="s">
+      <c r="BD21" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE21" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF21" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="BG21" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="BH21" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="BI21" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="BJ21" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="BK21" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="BL21" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="BM21" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="BN21" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="BO21" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="BP21" t="s">
+        <v>56</v>
+      </c>
+      <c r="BQ21" t="s">
+        <v>56</v>
+      </c>
+      <c r="BR21" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:70" x14ac:dyDescent="0.2">
       <c r="F22" s="2"/>
     </row>
   </sheetData>

--- a/budget-web-tests/testData/Budget_Anonymous_CA.xlsx
+++ b/budget-web-tests/testData/Budget_Anonymous_CA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/StatusNeo/Desktop/Budget_Payless 27 Apr/ecom-us-web/budget-web-tests/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C4636DC-3A14-AF40-B909-DA8B3CF5F981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A20BA78-A5AC-114C-AB1D-9BFB13FA2FCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -807,8 +807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BR22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="W21" sqref="W21"/>
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1311,7 +1311,7 @@
         <v>9840000000</v>
       </c>
       <c r="W3" s="3">
-        <v>342000000000000</v>
+        <v>340358520050965</v>
       </c>
       <c r="X3" s="2">
         <v>1129</v>
@@ -1947,7 +1947,7 @@
         <v>9840000000</v>
       </c>
       <c r="W6" s="3">
-        <v>342000000000000</v>
+        <v>340358520050965</v>
       </c>
       <c r="X6" s="2">
         <v>1129</v>
@@ -2159,7 +2159,7 @@
         <v>9840000000</v>
       </c>
       <c r="W7" s="3">
-        <v>342000000000000</v>
+        <v>340358520050965</v>
       </c>
       <c r="X7" s="2">
         <v>1129</v>
@@ -4915,7 +4915,7 @@
         <v>9838234567</v>
       </c>
       <c r="W20" s="3">
-        <v>342000000000000</v>
+        <v>340358520050965</v>
       </c>
       <c r="X20">
         <v>1129</v>
@@ -5127,7 +5127,7 @@
         <v>9838234567</v>
       </c>
       <c r="W21" s="3">
-        <v>342000000000000</v>
+        <v>340358520050965</v>
       </c>
       <c r="X21">
         <v>1129</v>

--- a/budget-web-tests/testData/Budget_Anonymous_CA.xlsx
+++ b/budget-web-tests/testData/Budget_Anonymous_CA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/StatusNeo/Desktop/Budget_Payless 27 Apr/ecom-us-web/budget-web-tests/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A20BA78-A5AC-114C-AB1D-9BFB13FA2FCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54D05AB8-BC5F-A649-965D-E74291DFB7A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1520" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1519" uniqueCount="121">
   <si>
     <t>TestMethodName</t>
   </si>
@@ -245,18 +245,6 @@
     <t>Thailand</t>
   </si>
   <si>
-    <t>UUZZ011</t>
-  </si>
-  <si>
-    <t>04/13/2023</t>
-  </si>
-  <si>
-    <t>04/18/2023</t>
-  </si>
-  <si>
-    <t>TUZZ008</t>
-  </si>
-  <si>
     <t>Delta</t>
   </si>
   <si>
@@ -266,9 +254,6 @@
     <t>YYZ</t>
   </si>
   <si>
-    <t>Canada</t>
-  </si>
-  <si>
     <t>Budget_RES_Modify_cancel_flow_Step1_to_Step4_CA</t>
   </si>
   <si>
@@ -393,6 +378,12 @@
   </si>
   <si>
     <t>Paynow</t>
+  </si>
+  <si>
+    <t>Verify</t>
+  </si>
+  <si>
+    <t>LHR</t>
   </si>
 </sst>
 </file>
@@ -401,9 +392,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0;[Red]0"/>
-    <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="168" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -465,6 +456,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -488,7 +491,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -500,9 +503,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
@@ -528,6 +528,15 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -808,7 +817,7 @@
   <dimension ref="A1:BR22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="A2" sqref="A2:A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -985,58 +994,58 @@
       <c r="BC1" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="8" t="s">
+      <c r="BD1" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="BE1" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="BF1" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="BG1" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="BH1" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="BI1" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="BE1" s="8" t="s">
+      <c r="BJ1" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="BF1" s="8" t="s">
+      <c r="BK1" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="BG1" s="8" t="s">
+      <c r="BL1" t="s">
         <v>112</v>
       </c>
-      <c r="BH1" s="10" t="s">
+      <c r="BM1" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="BI1" s="10" t="s">
+      <c r="BN1" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="BJ1" s="10" t="s">
+      <c r="BO1" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="BK1" s="8" t="s">
+      <c r="BP1" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BQ1" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="BM1" s="11" t="s">
+      <c r="BR1" s="11" t="s">
         <v>118</v>
-      </c>
-      <c r="BN1" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="BO1" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="BP1" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="BQ1" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="BR1" s="12" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
-        <v>108</v>
+      <c r="A2" s="7" t="s">
+        <v>103</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>55</v>
@@ -1048,10 +1057,10 @@
         <v>56</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>56</v>
@@ -1197,37 +1206,37 @@
       <c r="BC2" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="BD2" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="BE2" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="BF2" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="BG2" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="BH2" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="BI2" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="BJ2" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="BK2" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="BL2" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="BM2" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="BN2" s="13" t="s">
+      <c r="BD2" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE2" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF2" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="BG2" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="BH2" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="BI2" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="BJ2" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="BK2" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="BL2" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="BM2" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="BN2" s="12" t="s">
         <v>56</v>
       </c>
       <c r="BO2" t="s">
@@ -1244,11 +1253,11 @@
       </c>
     </row>
     <row r="3" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
-        <v>108</v>
+      <c r="A3" s="7" t="s">
+        <v>103</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>55</v>
@@ -1260,10 +1269,10 @@
         <v>56</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="H3" t="s">
         <v>62</v>
@@ -1332,10 +1341,10 @@
         <v>66</v>
       </c>
       <c r="AD3" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AE3" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="AF3" s="2" t="s">
         <v>56</v>
@@ -1409,37 +1418,37 @@
       <c r="BC3" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="BD3" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="BE3" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="BF3" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="BG3" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="BH3" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="BI3" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="BJ3" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="BK3" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="BL3" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="BM3" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="BN3" s="13" t="s">
+      <c r="BD3" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE3" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF3" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="BG3" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="BH3" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="BI3" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="BJ3" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="BK3" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="BL3" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="BM3" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="BN3" s="12" t="s">
         <v>56</v>
       </c>
       <c r="BO3" t="s">
@@ -1456,11 +1465,11 @@
       </c>
     </row>
     <row r="4" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
-        <v>108</v>
+      <c r="A4" s="7" t="s">
+        <v>103</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>55</v>
@@ -1472,10 +1481,10 @@
         <v>56</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="H4" t="s">
         <v>62</v>
@@ -1621,37 +1630,37 @@
       <c r="BC4" t="s">
         <v>56</v>
       </c>
-      <c r="BD4" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="BE4" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="BF4" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="BG4" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="BH4" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="BI4" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="BJ4" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="BK4" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="BL4" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="BM4" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="BN4" s="13" t="s">
+      <c r="BD4" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE4" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF4" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="BG4" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="BH4" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="BI4" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="BJ4" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="BK4" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="BL4" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="BM4" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="BN4" s="12" t="s">
         <v>56</v>
       </c>
       <c r="BO4" t="s">
@@ -1668,11 +1677,11 @@
       </c>
     </row>
     <row r="5" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
-        <v>108</v>
+      <c r="A5" s="7" t="s">
+        <v>103</v>
       </c>
       <c r="B5" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C5" t="s">
         <v>55</v>
@@ -1686,8 +1695,8 @@
       <c r="F5" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G5" t="s">
-        <v>81</v>
+      <c r="G5" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="H5" t="s">
         <v>62</v>
@@ -1761,10 +1770,10 @@
       <c r="AE5" t="s">
         <v>56</v>
       </c>
-      <c r="AF5" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="AG5" s="9" t="s">
+      <c r="AF5" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG5" s="8" t="s">
         <v>56</v>
       </c>
       <c r="AH5" t="s">
@@ -1833,37 +1842,37 @@
       <c r="BC5" t="s">
         <v>56</v>
       </c>
-      <c r="BD5" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="BE5" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="BF5" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="BG5" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="BH5" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="BI5" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="BJ5" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="BK5" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="BL5" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="BM5" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="BN5" s="13" t="s">
+      <c r="BD5" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE5" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF5" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="BG5" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="BH5" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="BI5" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="BJ5" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="BK5" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="BL5" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="BM5" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="BN5" s="12" t="s">
         <v>56</v>
       </c>
       <c r="BO5" t="s">
@@ -1880,11 +1889,11 @@
       </c>
     </row>
     <row r="6" spans="1:70" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
-        <v>108</v>
+      <c r="A6" s="7" t="s">
+        <v>103</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>55</v>
@@ -1896,18 +1905,18 @@
         <v>56</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="7" t="s">
         <v>56</v>
       </c>
       <c r="I6" t="s">
         <v>56</v>
       </c>
-      <c r="J6" s="8" t="s">
+      <c r="J6" s="7" t="s">
         <v>56</v>
       </c>
       <c r="K6" s="2" t="s">
@@ -1997,7 +2006,7 @@
       <c r="AM6" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="AN6" s="8" t="s">
+      <c r="AN6" s="7" t="s">
         <v>56</v>
       </c>
       <c r="AO6" s="2" t="s">
@@ -2039,43 +2048,43 @@
       <c r="BA6" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="BB6" s="7" t="s">
-        <v>78</v>
+      <c r="BB6" s="6" t="s">
+        <v>74</v>
       </c>
       <c r="BC6">
         <v>2323</v>
       </c>
-      <c r="BD6" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="BE6" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="BF6" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="BG6" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="BH6" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="BI6" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="BJ6" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="BK6" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="BL6" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="BM6" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="BN6" s="13" t="s">
+      <c r="BD6" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE6" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF6" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="BG6" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="BH6" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="BI6" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="BJ6" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="BK6" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="BL6" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="BM6" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="BN6" s="12" t="s">
         <v>56</v>
       </c>
       <c r="BO6" t="s">
@@ -2092,11 +2101,11 @@
       </c>
     </row>
     <row r="7" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
-        <v>108</v>
+      <c r="A7" s="7" t="s">
+        <v>103</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>55</v>
@@ -2108,10 +2117,10 @@
         <v>56</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="H7" t="s">
         <v>62</v>
@@ -2180,15 +2189,15 @@
         <v>66</v>
       </c>
       <c r="AD7" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AE7" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AF7" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AF7" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="AG7" s="2">
+      <c r="AG7" s="15">
         <v>38298026</v>
       </c>
       <c r="AH7" s="2" t="s">
@@ -2252,42 +2261,42 @@
         <v>56</v>
       </c>
       <c r="BB7" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="BC7" s="2">
         <v>2323</v>
       </c>
-      <c r="BD7" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="BE7" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="BF7" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="BG7" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="BH7" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="BI7" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="BJ7" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="BK7" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="BL7" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="BM7" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="BN7" s="13" t="s">
+      <c r="BD7" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE7" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF7" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="BG7" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="BH7" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="BI7" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="BJ7" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="BK7" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="BL7" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="BM7" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="BN7" s="12" t="s">
         <v>56</v>
       </c>
       <c r="BO7" t="s">
@@ -2304,11 +2313,11 @@
       </c>
     </row>
     <row r="8" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
-        <v>108</v>
+      <c r="A8" s="7" t="s">
+        <v>103</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>55</v>
@@ -2320,10 +2329,10 @@
         <v>56</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="H8" t="s">
         <v>62</v>
@@ -2338,7 +2347,7 @@
         <v>56</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="M8" s="2" t="s">
         <v>56</v>
@@ -2464,42 +2473,42 @@
         <v>56</v>
       </c>
       <c r="BB8" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="BC8" s="2">
         <v>2323</v>
       </c>
-      <c r="BD8" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="BE8" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="BF8" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="BG8" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="BH8" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="BI8" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="BJ8" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="BK8" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="BL8" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="BM8" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="BN8" s="13" t="s">
+      <c r="BD8" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE8" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF8" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="BG8" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="BH8" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="BI8" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="BJ8" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="BK8" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="BL8" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="BM8" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="BN8" s="12" t="s">
         <v>56</v>
       </c>
       <c r="BO8" t="s">
@@ -2516,11 +2525,11 @@
       </c>
     </row>
     <row r="9" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
-        <v>108</v>
+      <c r="A9" s="7" t="s">
+        <v>103</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>55</v>
@@ -2532,10 +2541,10 @@
         <v>56</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>56</v>
@@ -2676,42 +2685,42 @@
         <v>56</v>
       </c>
       <c r="BB9" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="BC9" s="2">
         <v>2323</v>
       </c>
-      <c r="BD9" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="BE9" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="BF9" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="BG9" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="BH9" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="BI9" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="BJ9" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="BK9" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="BL9" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="BM9" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="BN9" s="13" t="s">
+      <c r="BD9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE9" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF9" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="BG9" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="BH9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="BI9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="BJ9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="BK9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="BL9" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="BM9" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="BN9" s="12" t="s">
         <v>56</v>
       </c>
       <c r="BO9" t="s">
@@ -2728,11 +2737,11 @@
       </c>
     </row>
     <row r="10" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
-        <v>108</v>
+      <c r="A10" s="7" t="s">
+        <v>103</v>
       </c>
       <c r="B10" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C10" t="s">
         <v>55</v>
@@ -2744,7 +2753,7 @@
         <v>56</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="G10" t="s">
         <v>73</v>
@@ -2888,42 +2897,42 @@
         <v>56</v>
       </c>
       <c r="BB10" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="BC10" s="2">
         <v>2323</v>
       </c>
-      <c r="BD10" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="BE10" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="BF10" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="BG10" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="BH10" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="BI10" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="BJ10" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="BK10" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="BL10" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="BM10" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="BN10" s="13" t="s">
+      <c r="BD10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE10" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF10" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="BG10" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="BH10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="BI10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="BJ10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="BK10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="BL10" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="BM10" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="BN10" s="12" t="s">
         <v>56</v>
       </c>
       <c r="BO10" t="s">
@@ -2940,11 +2949,11 @@
       </c>
     </row>
     <row r="11" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
-        <v>108</v>
+      <c r="A11" s="7" t="s">
+        <v>103</v>
       </c>
       <c r="B11" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C11" t="s">
         <v>55</v>
@@ -2956,18 +2965,18 @@
         <v>56</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="G11" t="s">
         <v>56</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="H11" s="7" t="s">
         <v>56</v>
       </c>
       <c r="I11" t="s">
         <v>56</v>
       </c>
-      <c r="J11" s="8" t="s">
+      <c r="J11" s="7" t="s">
         <v>56</v>
       </c>
       <c r="K11" t="s">
@@ -3033,7 +3042,7 @@
       <c r="AE11" t="s">
         <v>56</v>
       </c>
-      <c r="AF11" s="8" t="s">
+      <c r="AF11" s="7" t="s">
         <v>56</v>
       </c>
       <c r="AG11" t="s">
@@ -3057,7 +3066,7 @@
       <c r="AM11" t="s">
         <v>56</v>
       </c>
-      <c r="AN11" s="8" t="s">
+      <c r="AN11" s="7" t="s">
         <v>56</v>
       </c>
       <c r="AO11" t="s">
@@ -3100,42 +3109,42 @@
         <v>56</v>
       </c>
       <c r="BB11" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="BC11" s="2">
         <v>2323</v>
       </c>
-      <c r="BD11" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="BE11" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="BF11" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="BG11" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="BH11" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="BI11" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="BJ11" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="BK11" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="BL11" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="BM11" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="BN11" s="13" t="s">
+      <c r="BD11" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE11" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF11" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="BG11" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="BH11" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="BI11" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="BJ11" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="BK11" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="BL11" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="BM11" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="BN11" s="12" t="s">
         <v>56</v>
       </c>
       <c r="BO11" t="s">
@@ -3152,11 +3161,11 @@
       </c>
     </row>
     <row r="12" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A12" s="8" t="s">
-        <v>108</v>
+      <c r="A12" s="7" t="s">
+        <v>103</v>
       </c>
       <c r="B12" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C12" t="s">
         <v>55</v>
@@ -3168,19 +3177,19 @@
         <v>56</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="G12" t="s">
+        <v>76</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>56</v>
       </c>
       <c r="H12" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="I12" t="s">
         <v>56</v>
       </c>
       <c r="J12" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="K12" t="s">
         <v>56</v>
@@ -3188,8 +3197,8 @@
       <c r="L12" t="s">
         <v>56</v>
       </c>
-      <c r="M12" s="8" t="s">
-        <v>74</v>
+      <c r="M12" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="N12" t="s">
         <v>56</v>
@@ -3312,42 +3321,42 @@
         <v>56</v>
       </c>
       <c r="BB12" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="BC12">
         <v>2323</v>
       </c>
-      <c r="BD12" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="BE12" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="BF12" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="BG12" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="BH12" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="BI12" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="BJ12" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="BK12" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="BL12" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="BM12" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="BN12" s="13" t="s">
+      <c r="BD12" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE12" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF12" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="BG12" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="BH12" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="BI12" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="BJ12" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="BK12" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="BL12" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="BM12" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="BN12" s="12" t="s">
         <v>56</v>
       </c>
       <c r="BO12" t="s">
@@ -3364,11 +3373,11 @@
       </c>
     </row>
     <row r="13" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
-        <v>108</v>
+      <c r="A13" s="7" t="s">
+        <v>103</v>
       </c>
       <c r="B13" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C13" t="s">
         <v>55</v>
@@ -3380,7 +3389,7 @@
         <v>56</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G13" t="s">
         <v>56</v>
@@ -3457,10 +3466,10 @@
       <c r="AE13" t="s">
         <v>56</v>
       </c>
-      <c r="AF13" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="AG13" s="9" t="s">
+      <c r="AF13" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG13" s="8" t="s">
         <v>56</v>
       </c>
       <c r="AH13" t="s">
@@ -3524,42 +3533,42 @@
         <v>56</v>
       </c>
       <c r="BB13" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="BC13" s="2">
         <v>2323</v>
       </c>
-      <c r="BD13" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="BE13" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="BF13" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="BG13" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="BH13" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="BI13" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="BJ13" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="BK13" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="BL13" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="BM13" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="BN13" s="13" t="s">
+      <c r="BD13" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="BG13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="BH13" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="BI13" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="BJ13" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="BK13" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="BL13" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="BM13" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="BN13" s="12" t="s">
         <v>56</v>
       </c>
       <c r="BO13" t="s">
@@ -3576,11 +3585,11 @@
       </c>
     </row>
     <row r="14" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A14" s="8" t="s">
-        <v>108</v>
+      <c r="A14" s="7" t="s">
+        <v>103</v>
       </c>
       <c r="B14" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C14" t="s">
         <v>55</v>
@@ -3592,7 +3601,7 @@
         <v>56</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="G14" t="s">
         <v>56</v>
@@ -3736,42 +3745,42 @@
         <v>56</v>
       </c>
       <c r="BB14" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="BC14" s="2">
         <v>2323</v>
       </c>
-      <c r="BD14" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="BE14" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="BF14" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="BG14" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="BH14" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="BI14" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="BJ14" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="BK14" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="BL14" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="BM14" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="BN14" s="13" t="s">
+      <c r="BD14" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE14" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF14" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="BG14" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="BH14" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="BI14" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="BJ14" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="BK14" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="BL14" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="BM14" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="BN14" s="12" t="s">
         <v>56</v>
       </c>
       <c r="BO14" t="s">
@@ -3788,14 +3797,14 @@
       </c>
     </row>
     <row r="15" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A15" s="8" t="s">
-        <v>108</v>
+      <c r="A15" s="7" t="s">
+        <v>103</v>
       </c>
       <c r="B15" t="s">
-        <v>99</v>
-      </c>
-      <c r="C15" t="s">
-        <v>55</v>
+        <v>94</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>119</v>
       </c>
       <c r="D15" t="s">
         <v>56</v>
@@ -3804,19 +3813,19 @@
         <v>56</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="G15" t="s">
         <v>56</v>
       </c>
-      <c r="H15" t="s">
-        <v>62</v>
-      </c>
-      <c r="I15" t="s">
-        <v>56</v>
-      </c>
-      <c r="J15" t="s">
-        <v>63</v>
+      <c r="H15" s="16">
+        <v>45118</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J15" s="16">
+        <v>45210</v>
       </c>
       <c r="K15" t="s">
         <v>56</v>
@@ -3839,20 +3848,20 @@
       <c r="Q15" t="s">
         <v>56</v>
       </c>
-      <c r="R15" t="s">
-        <v>58</v>
-      </c>
-      <c r="S15" t="s">
-        <v>59</v>
-      </c>
-      <c r="T15" t="s">
-        <v>60</v>
-      </c>
-      <c r="U15" t="s">
-        <v>61</v>
-      </c>
-      <c r="V15" s="3">
-        <v>9838234567</v>
+      <c r="R15" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="S15" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="T15" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="U15" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="V15" s="8" t="s">
+        <v>56</v>
       </c>
       <c r="W15" t="s">
         <v>56</v>
@@ -3947,43 +3956,43 @@
       <c r="BA15" t="s">
         <v>56</v>
       </c>
-      <c r="BB15" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="BC15" s="2">
-        <v>2323</v>
-      </c>
-      <c r="BD15" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="BE15" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="BF15" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="BG15" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="BH15" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="BI15" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="BJ15" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="BK15" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="BL15" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="BM15" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="BN15" s="13" t="s">
+      <c r="BB15" t="s">
+        <v>56</v>
+      </c>
+      <c r="BC15" t="s">
+        <v>56</v>
+      </c>
+      <c r="BD15" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE15" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF15" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG15" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="BH15" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="BI15" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="BJ15" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="BK15" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="BL15" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="BM15" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="BN15" s="12" t="s">
         <v>56</v>
       </c>
       <c r="BO15" t="s">
@@ -4000,11 +4009,11 @@
       </c>
     </row>
     <row r="16" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A16" s="8" t="s">
-        <v>108</v>
+      <c r="A16" s="7" t="s">
+        <v>103</v>
       </c>
       <c r="B16" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C16" t="s">
         <v>55</v>
@@ -4016,19 +4025,19 @@
         <v>56</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="G16" t="s">
         <v>56</v>
       </c>
-      <c r="H16" s="5" t="s">
-        <v>75</v>
+      <c r="H16" t="s">
+        <v>62</v>
       </c>
       <c r="I16" t="s">
         <v>56</v>
       </c>
       <c r="J16" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="K16" t="s">
         <v>56</v>
@@ -4036,12 +4045,10 @@
       <c r="L16" t="s">
         <v>56</v>
       </c>
-      <c r="M16" t="s">
-        <v>56</v>
-      </c>
-      <c r="N16" s="8" t="s">
-        <v>77</v>
-      </c>
+      <c r="M16" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="N16" s="7"/>
       <c r="O16" t="s">
         <v>56</v>
       </c>
@@ -4160,42 +4167,42 @@
         <v>56</v>
       </c>
       <c r="BB16" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="BC16" s="2">
         <v>2323</v>
       </c>
-      <c r="BD16" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="BE16" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="BF16" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="BG16" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="BH16" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="BI16" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="BJ16" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="BK16" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="BL16" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="BM16" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="BN16" s="13" t="s">
+      <c r="BD16" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE16" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF16" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="BG16" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="BH16" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="BI16" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="BJ16" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="BK16" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="BL16" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="BM16" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="BN16" s="12" t="s">
         <v>56</v>
       </c>
       <c r="BO16" t="s">
@@ -4212,11 +4219,11 @@
       </c>
     </row>
     <row r="17" spans="1:70" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="8" t="s">
-        <v>108</v>
+      <c r="A17" s="7" t="s">
+        <v>103</v>
       </c>
       <c r="B17" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C17" t="s">
         <v>55</v>
@@ -4228,7 +4235,7 @@
         <v>56</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G17" t="s">
         <v>56</v>
@@ -4371,43 +4378,43 @@
       <c r="BA17" t="s">
         <v>56</v>
       </c>
-      <c r="BB17" s="7" t="s">
-        <v>78</v>
+      <c r="BB17" s="6" t="s">
+        <v>74</v>
       </c>
       <c r="BC17">
         <v>2323</v>
       </c>
-      <c r="BD17" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="BE17" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="BF17" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="BG17" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="BH17" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="BI17" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="BJ17" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="BK17" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="BL17" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="BM17" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="BN17" s="13" t="s">
+      <c r="BD17" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE17" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF17" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="BG17" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="BH17" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="BI17" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="BJ17" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="BK17" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="BL17" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="BM17" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="BN17" s="12" t="s">
         <v>56</v>
       </c>
       <c r="BO17" t="s">
@@ -4424,11 +4431,11 @@
       </c>
     </row>
     <row r="18" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A18" s="8" t="s">
-        <v>108</v>
+      <c r="A18" s="7" t="s">
+        <v>103</v>
       </c>
       <c r="B18" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C18" t="s">
         <v>55</v>
@@ -4440,7 +4447,7 @@
         <v>56</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="G18" t="s">
         <v>56</v>
@@ -4584,45 +4591,45 @@
         <v>56</v>
       </c>
       <c r="BB18" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="BC18" s="2">
         <v>2323</v>
       </c>
-      <c r="BD18" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="BE18" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="BF18" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="BG18" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="BH18" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="BI18" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="BJ18" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="BK18" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="BL18" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="BM18" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="BN18" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="BO18" s="8" t="s">
+      <c r="BD18" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE18" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF18" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="BG18" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="BH18" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="BI18" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="BJ18" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="BK18" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="BL18" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="BM18" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="BN18" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="BO18" s="7" t="s">
         <v>56</v>
       </c>
       <c r="BP18" t="s">
@@ -4636,11 +4643,11 @@
       </c>
     </row>
     <row r="19" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A19" s="8" t="s">
-        <v>108</v>
+      <c r="A19" s="7" t="s">
+        <v>103</v>
       </c>
       <c r="B19" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C19" t="s">
         <v>55</v>
@@ -4652,19 +4659,19 @@
         <v>56</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="G19" t="s">
-        <v>56</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>56</v>
+        <v>76</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H19" t="s">
+        <v>62</v>
       </c>
       <c r="I19" t="s">
         <v>56</v>
       </c>
-      <c r="J19" s="8" t="s">
-        <v>56</v>
+      <c r="J19" t="s">
+        <v>63</v>
       </c>
       <c r="K19" t="s">
         <v>56</v>
@@ -4672,8 +4679,8 @@
       <c r="L19" t="s">
         <v>56</v>
       </c>
-      <c r="M19" s="6" t="s">
-        <v>74</v>
+      <c r="M19" s="5" t="s">
+        <v>68</v>
       </c>
       <c r="N19" t="s">
         <v>56</v>
@@ -4796,51 +4803,51 @@
         <v>56</v>
       </c>
       <c r="BB19" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="BC19" s="2">
         <v>2323</v>
       </c>
-      <c r="BD19" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="BE19" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="BF19" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="BG19" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="BH19" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="BI19" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="BJ19" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="BK19" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="BL19" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="BM19" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="BN19" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="BO19" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="BP19" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="BQ19" s="14" t="s">
+      <c r="BD19" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE19" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF19" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="BG19" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="BH19" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="BI19" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="BJ19" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="BK19" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="BL19" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="BM19" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="BN19" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="BO19" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="BP19" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="BQ19" s="13" t="s">
         <v>56</v>
       </c>
       <c r="BR19" t="s">
@@ -4848,11 +4855,11 @@
       </c>
     </row>
     <row r="20" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A20" s="8" t="s">
-        <v>108</v>
+      <c r="A20" s="7" t="s">
+        <v>103</v>
       </c>
       <c r="B20" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C20" t="s">
         <v>55</v>
@@ -4864,7 +4871,7 @@
         <v>56</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="G20" t="s">
         <v>56</v>
@@ -4936,10 +4943,10 @@
         <v>66</v>
       </c>
       <c r="AD20" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AE20" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="AF20" t="s">
         <v>56</v>
@@ -4956,7 +4963,7 @@
       <c r="AJ20" t="s">
         <v>56</v>
       </c>
-      <c r="AK20" s="8" t="s">
+      <c r="AK20" s="7" t="s">
         <v>56</v>
       </c>
       <c r="AL20" t="s">
@@ -5008,45 +5015,45 @@
         <v>56</v>
       </c>
       <c r="BB20" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="BC20" s="2">
         <v>2323</v>
       </c>
-      <c r="BD20" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="BE20" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="BF20" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="BG20" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="BH20" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="BI20" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="BJ20" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="BK20" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="BL20" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="BM20" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="BN20" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="BO20" s="13" t="s">
+      <c r="BD20" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE20" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF20" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="BG20" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="BH20" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="BI20" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="BJ20" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="BK20" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="BL20" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="BM20" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="BN20" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="BO20" s="12" t="s">
         <v>56</v>
       </c>
       <c r="BP20" t="s">
@@ -5060,11 +5067,11 @@
       </c>
     </row>
     <row r="21" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A21" s="8" t="s">
-        <v>108</v>
+      <c r="A21" s="7" t="s">
+        <v>103</v>
       </c>
       <c r="B21" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C21" t="s">
         <v>55</v>
@@ -5076,7 +5083,7 @@
         <v>56</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G21" t="s">
         <v>56</v>
@@ -5148,10 +5155,10 @@
         <v>66</v>
       </c>
       <c r="AD21" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AE21" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="AF21" t="s">
         <v>56</v>
@@ -5168,7 +5175,7 @@
       <c r="AJ21" t="s">
         <v>56</v>
       </c>
-      <c r="AK21" s="8" t="s">
+      <c r="AK21" s="7" t="s">
         <v>56</v>
       </c>
       <c r="AL21" t="s">
@@ -5220,45 +5227,45 @@
         <v>56</v>
       </c>
       <c r="BB21" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="BC21" s="2">
         <v>2323</v>
       </c>
-      <c r="BD21" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="BE21" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="BF21" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="BG21" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="BH21" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="BI21" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="BJ21" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="BK21" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="BL21" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="BM21" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="BN21" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="BO21" s="13" t="s">
+      <c r="BD21" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE21" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF21" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="BG21" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="BH21" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="BI21" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="BJ21" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="BK21" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="BL21" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="BM21" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="BN21" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="BO21" s="12" t="s">
         <v>56</v>
       </c>
       <c r="BP21" t="s">
@@ -5300,10 +5307,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F1" t="s">
         <v>5</v>
@@ -5452,7 +5459,7 @@
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C2" t="s">
         <v>55</v>

--- a/budget-web-tests/testData/Budget_Anonymous_CA.xlsx
+++ b/budget-web-tests/testData/Budget_Anonymous_CA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/StatusNeo/Desktop/Budget_Payless 27 Apr/ecom-us-web/budget-web-tests/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54D05AB8-BC5F-A649-965D-E74291DFB7A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C524C8B-1438-A546-9552-1C0498103079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -392,7 +392,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0;[Red]0"/>
-    <numFmt numFmtId="168" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -536,7 +536,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4966,8 +4966,8 @@
       <c r="AK20" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="AL20" t="s">
-        <v>67</v>
+      <c r="AL20" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="AM20" t="s">
         <v>56</v>
@@ -5178,8 +5178,8 @@
       <c r="AK21" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="AL21" t="s">
-        <v>67</v>
+      <c r="AL21" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="AM21" t="s">
         <v>56</v>

--- a/budget-web-tests/testData/Budget_Anonymous_CA.xlsx
+++ b/budget-web-tests/testData/Budget_Anonymous_CA.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10409"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/StatusNeo/Desktop/Budget_Payless 27 Apr/ecom-us-web/budget-web-tests/testData/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BB73051-AB6C-6347-924C-0310CCC800B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9215"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Budget CA Anonymous" sheetId="3" r:id="rId1"/>
@@ -15,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1519" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1521" uniqueCount="123">
   <si>
     <t>TestMethodName</t>
   </si>
@@ -378,22 +384,23 @@
   </si>
   <si>
     <t>Budget_Profile_RES_Incognito_PayLater_US</t>
+  </si>
+  <si>
+    <t>07/13/2023</t>
+  </si>
+  <si>
+    <t>10/13/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="7">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0;[Red]0"/>
-    <numFmt numFmtId="178" formatCode="dd/mm/yyyy;@"/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="181" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="182" formatCode="dd/mm/yyyy"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="165" formatCode="0;[Red]0"/>
+    <numFmt numFmtId="170" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -405,394 +412,64 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF444444"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -800,255 +477,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1059,17 +494,14 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1087,65 +519,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1403,27 +791,28 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BR22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A21"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.8333333333333" customWidth="1"/>
-    <col min="2" max="2" width="96.6666666666667" customWidth="1"/>
+    <col min="1" max="1" width="24.83203125" customWidth="1"/>
+    <col min="2" max="2" width="96.6640625" customWidth="1"/>
     <col min="23" max="23" width="17" customWidth="1"/>
-    <col min="33" max="33" width="13.6666666666667" customWidth="1"/>
+    <col min="33" max="33" width="13.6640625" customWidth="1"/>
+    <col min="62" max="62" width="15.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" spans="1:70">
+    <row r="1" spans="1:70" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1487,7 +876,7 @@
       <c r="U1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="V1" s="5" t="s">
         <v>21</v>
       </c>
       <c r="W1" t="s">
@@ -1616,10 +1005,10 @@
       <c r="BL1" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" s="13" t="s">
+      <c r="BM1" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="BN1" s="13" t="s">
+      <c r="BN1" s="12" t="s">
         <v>65</v>
       </c>
       <c r="BO1" s="2" t="s">
@@ -1635,7 +1024,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:70">
+    <row r="2" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>70</v>
       </c>
@@ -1699,7 +1088,7 @@
       <c r="U2" t="s">
         <v>78</v>
       </c>
-      <c r="V2" s="7">
+      <c r="V2" s="6">
         <v>9840000000</v>
       </c>
       <c r="W2" s="3" t="s">
@@ -1825,13 +1214,13 @@
       <c r="BK2" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="BL2" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="BM2" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="BN2" s="12" t="s">
+      <c r="BL2" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="BM2" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="BN2" s="11" t="s">
         <v>73</v>
       </c>
       <c r="BO2" t="s">
@@ -1847,7 +1236,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:70">
+    <row r="3" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>70</v>
       </c>
@@ -1911,10 +1300,10 @@
       <c r="U3" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="V3" s="7">
+      <c r="V3" s="6">
         <v>9840000000</v>
       </c>
-      <c r="W3" s="6">
+      <c r="W3" s="5">
         <v>340358520050965</v>
       </c>
       <c r="X3" s="3">
@@ -2037,13 +1426,13 @@
       <c r="BK3" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="BL3" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="BM3" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="BN3" s="12" t="s">
+      <c r="BL3" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="BM3" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="BN3" s="11" t="s">
         <v>73</v>
       </c>
       <c r="BO3" t="s">
@@ -2059,7 +1448,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:70">
+    <row r="4" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>70</v>
       </c>
@@ -2123,7 +1512,7 @@
       <c r="U4" t="s">
         <v>78</v>
       </c>
-      <c r="V4" s="7">
+      <c r="V4" s="6">
         <v>9840000000</v>
       </c>
       <c r="W4" s="3" t="s">
@@ -2249,13 +1638,13 @@
       <c r="BK4" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="BL4" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="BM4" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="BN4" s="12" t="s">
+      <c r="BL4" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="BM4" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="BN4" s="11" t="s">
         <v>73</v>
       </c>
       <c r="BO4" t="s">
@@ -2271,7 +1660,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:70">
+    <row r="5" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>70</v>
       </c>
@@ -2335,7 +1724,7 @@
       <c r="U5" t="s">
         <v>78</v>
       </c>
-      <c r="V5" s="6">
+      <c r="V5" s="5">
         <v>9838234567</v>
       </c>
       <c r="W5" t="s">
@@ -2368,7 +1757,7 @@
       <c r="AF5" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="AG5" s="8" t="s">
+      <c r="AG5" s="7" t="s">
         <v>73</v>
       </c>
       <c r="AH5" t="s">
@@ -2461,13 +1850,13 @@
       <c r="BK5" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="BL5" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="BM5" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="BN5" s="12" t="s">
+      <c r="BL5" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="BM5" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="BN5" s="11" t="s">
         <v>73</v>
       </c>
       <c r="BO5" t="s">
@@ -2483,7 +1872,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" ht="15" spans="1:70">
+    <row r="6" spans="1:70" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>70</v>
       </c>
@@ -2547,10 +1936,10 @@
       <c r="U6" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="V6" s="7">
+      <c r="V6" s="6">
         <v>9840000000</v>
       </c>
-      <c r="W6" s="6">
+      <c r="W6" s="5">
         <v>340358520050965</v>
       </c>
       <c r="X6" s="3">
@@ -2643,7 +2032,7 @@
       <c r="BA6" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="BB6" s="11" t="s">
+      <c r="BB6" s="10" t="s">
         <v>96</v>
       </c>
       <c r="BC6">
@@ -2673,13 +2062,13 @@
       <c r="BK6" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="BL6" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="BM6" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="BN6" s="12" t="s">
+      <c r="BL6" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="BM6" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="BN6" s="11" t="s">
         <v>73</v>
       </c>
       <c r="BO6" t="s">
@@ -2695,7 +2084,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:70">
+    <row r="7" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>70</v>
       </c>
@@ -2759,10 +2148,10 @@
       <c r="U7" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="V7" s="7">
+      <c r="V7" s="6">
         <v>9840000000</v>
       </c>
-      <c r="W7" s="6">
+      <c r="W7" s="5">
         <v>340358520050965</v>
       </c>
       <c r="X7" s="3">
@@ -2789,10 +2178,10 @@
       <c r="AE7" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="AF7" s="9" t="s">
+      <c r="AF7" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="AG7" s="10">
+      <c r="AG7" s="9">
         <v>38298026</v>
       </c>
       <c r="AH7" s="3" t="s">
@@ -2885,13 +2274,13 @@
       <c r="BK7" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="BL7" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="BM7" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="BN7" s="12" t="s">
+      <c r="BL7" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="BM7" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="BN7" s="11" t="s">
         <v>73</v>
       </c>
       <c r="BO7" t="s">
@@ -2907,7 +2296,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:70">
+    <row r="8" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>70</v>
       </c>
@@ -2971,7 +2360,7 @@
       <c r="U8" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="V8" s="7">
+      <c r="V8" s="6">
         <v>9840000000</v>
       </c>
       <c r="W8" s="3" t="s">
@@ -3097,13 +2486,13 @@
       <c r="BK8" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="BL8" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="BM8" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="BN8" s="12" t="s">
+      <c r="BL8" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="BM8" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="BN8" s="11" t="s">
         <v>73</v>
       </c>
       <c r="BO8" t="s">
@@ -3119,7 +2508,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:70">
+    <row r="9" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>70</v>
       </c>
@@ -3183,7 +2572,7 @@
       <c r="U9" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="V9" s="7">
+      <c r="V9" s="6">
         <v>9840000000</v>
       </c>
       <c r="W9" s="3" t="s">
@@ -3309,13 +2698,13 @@
       <c r="BK9" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="BL9" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="BM9" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="BN9" s="12" t="s">
+      <c r="BL9" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="BM9" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="BN9" s="11" t="s">
         <v>73</v>
       </c>
       <c r="BO9" t="s">
@@ -3331,7 +2720,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:70">
+    <row r="10" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>70</v>
       </c>
@@ -3395,7 +2784,7 @@
       <c r="U10" t="s">
         <v>78</v>
       </c>
-      <c r="V10" s="6">
+      <c r="V10" s="5">
         <v>9838234567</v>
       </c>
       <c r="W10" t="s">
@@ -3521,13 +2910,13 @@
       <c r="BK10" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="BL10" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="BM10" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="BN10" s="12" t="s">
+      <c r="BL10" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="BM10" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="BN10" s="11" t="s">
         <v>73</v>
       </c>
       <c r="BO10" t="s">
@@ -3543,7 +2932,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:70">
+    <row r="11" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>70</v>
       </c>
@@ -3607,7 +2996,7 @@
       <c r="U11" t="s">
         <v>78</v>
       </c>
-      <c r="V11" s="6">
+      <c r="V11" s="5">
         <v>9838234567</v>
       </c>
       <c r="W11" t="s">
@@ -3733,13 +3122,13 @@
       <c r="BK11" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="BL11" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="BM11" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="BN11" s="12" t="s">
+      <c r="BL11" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="BM11" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="BN11" s="11" t="s">
         <v>73</v>
       </c>
       <c r="BO11" t="s">
@@ -3755,7 +3144,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:70">
+    <row r="12" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>70</v>
       </c>
@@ -3819,7 +3208,7 @@
       <c r="U12" t="s">
         <v>78</v>
       </c>
-      <c r="V12" s="6">
+      <c r="V12" s="5">
         <v>9838234567</v>
       </c>
       <c r="W12" t="s">
@@ -3945,13 +3334,13 @@
       <c r="BK12" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="BL12" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="BM12" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="BN12" s="12" t="s">
+      <c r="BL12" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="BM12" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="BN12" s="11" t="s">
         <v>73</v>
       </c>
       <c r="BO12" t="s">
@@ -3967,7 +3356,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:70">
+    <row r="13" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>70</v>
       </c>
@@ -4031,7 +3420,7 @@
       <c r="U13" t="s">
         <v>78</v>
       </c>
-      <c r="V13" s="6">
+      <c r="V13" s="5">
         <v>9838234567</v>
       </c>
       <c r="W13" t="s">
@@ -4064,7 +3453,7 @@
       <c r="AF13" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="AG13" s="8" t="s">
+      <c r="AG13" s="7" t="s">
         <v>73</v>
       </c>
       <c r="AH13" t="s">
@@ -4157,13 +3546,13 @@
       <c r="BK13" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="BL13" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="BM13" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="BN13" s="12" t="s">
+      <c r="BL13" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="BM13" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="BN13" s="11" t="s">
         <v>73</v>
       </c>
       <c r="BO13" t="s">
@@ -4179,7 +3568,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:70">
+    <row r="14" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>70</v>
       </c>
@@ -4243,7 +3632,7 @@
       <c r="U14" t="s">
         <v>78</v>
       </c>
-      <c r="V14" s="6">
+      <c r="V14" s="5">
         <v>9838234567</v>
       </c>
       <c r="W14" t="s">
@@ -4369,13 +3758,13 @@
       <c r="BK14" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="BL14" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="BM14" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="BN14" s="12" t="s">
+      <c r="BL14" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="BM14" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="BN14" s="11" t="s">
         <v>73</v>
       </c>
       <c r="BO14" t="s">
@@ -4391,7 +3780,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:70">
+    <row r="15" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>70</v>
       </c>
@@ -4413,14 +3802,14 @@
       <c r="G15" t="s">
         <v>73</v>
       </c>
-      <c r="H15" s="4">
-        <v>45118</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="J15" s="4">
-        <v>45210</v>
+      <c r="H15" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="I15" t="s">
+        <v>73</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>122</v>
       </c>
       <c r="K15" t="s">
         <v>73</v>
@@ -4455,7 +3844,7 @@
       <c r="U15" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="V15" s="8" t="s">
+      <c r="V15" s="7" t="s">
         <v>73</v>
       </c>
       <c r="W15" t="s">
@@ -4581,13 +3970,13 @@
       <c r="BK15" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="BL15" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="BM15" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="BN15" s="12" t="s">
+      <c r="BL15" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="BM15" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="BN15" s="11" t="s">
         <v>73</v>
       </c>
       <c r="BO15" t="s">
@@ -4603,7 +3992,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:70">
+    <row r="16" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>70</v>
       </c>
@@ -4665,7 +4054,7 @@
       <c r="U16" t="s">
         <v>78</v>
       </c>
-      <c r="V16" s="6">
+      <c r="V16" s="5">
         <v>9838234567</v>
       </c>
       <c r="W16" t="s">
@@ -4791,13 +4180,13 @@
       <c r="BK16" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="BL16" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="BM16" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="BN16" s="12" t="s">
+      <c r="BL16" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="BM16" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="BN16" s="11" t="s">
         <v>73</v>
       </c>
       <c r="BO16" t="s">
@@ -4813,7 +4202,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="17" ht="15" spans="1:70">
+    <row r="17" spans="1:70" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>70</v>
       </c>
@@ -4877,7 +4266,7 @@
       <c r="U17" t="s">
         <v>78</v>
       </c>
-      <c r="V17" s="6">
+      <c r="V17" s="5">
         <v>9838234567</v>
       </c>
       <c r="W17" t="s">
@@ -4973,7 +4362,7 @@
       <c r="BA17" t="s">
         <v>73</v>
       </c>
-      <c r="BB17" s="11" t="s">
+      <c r="BB17" s="10" t="s">
         <v>96</v>
       </c>
       <c r="BC17">
@@ -5003,13 +4392,13 @@
       <c r="BK17" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="BL17" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="BM17" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="BN17" s="12" t="s">
+      <c r="BL17" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="BM17" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="BN17" s="11" t="s">
         <v>73</v>
       </c>
       <c r="BO17" t="s">
@@ -5025,7 +4414,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="1:70">
+    <row r="18" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>70</v>
       </c>
@@ -5089,7 +4478,7 @@
       <c r="U18" t="s">
         <v>78</v>
       </c>
-      <c r="V18" s="6">
+      <c r="V18" s="5">
         <v>9838234567</v>
       </c>
       <c r="W18" t="s">
@@ -5215,13 +4604,13 @@
       <c r="BK18" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="BL18" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="BM18" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="BN18" s="12" t="s">
+      <c r="BL18" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="BM18" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="BN18" s="11" t="s">
         <v>73</v>
       </c>
       <c r="BO18" s="2" t="s">
@@ -5237,7 +4626,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:70">
+    <row r="19" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>70</v>
       </c>
@@ -5274,7 +4663,7 @@
       <c r="L19" t="s">
         <v>73</v>
       </c>
-      <c r="M19" s="5" t="s">
+      <c r="M19" s="4" t="s">
         <v>89</v>
       </c>
       <c r="N19" t="s">
@@ -5301,7 +4690,7 @@
       <c r="U19" t="s">
         <v>78</v>
       </c>
-      <c r="V19" s="6">
+      <c r="V19" s="5">
         <v>9838234567</v>
       </c>
       <c r="W19" t="s">
@@ -5427,13 +4816,13 @@
       <c r="BK19" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="BL19" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="BM19" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="BN19" s="12" t="s">
+      <c r="BL19" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="BM19" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="BN19" s="11" t="s">
         <v>73</v>
       </c>
       <c r="BO19" s="2" t="s">
@@ -5442,14 +4831,14 @@
       <c r="BP19" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="BQ19" s="14" t="s">
+      <c r="BQ19" s="13" t="s">
         <v>73</v>
       </c>
       <c r="BR19" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="1:70">
+    <row r="20" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>70</v>
       </c>
@@ -5513,10 +4902,10 @@
       <c r="U20" t="s">
         <v>78</v>
       </c>
-      <c r="V20" s="6">
+      <c r="V20" s="5">
         <v>9838234567</v>
       </c>
-      <c r="W20" s="6">
+      <c r="W20" s="5">
         <v>340358520050965</v>
       </c>
       <c r="X20">
@@ -5639,16 +5028,16 @@
       <c r="BK20" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="BL20" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="BM20" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="BN20" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="BO20" s="12" t="s">
+      <c r="BL20" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="BM20" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="BN20" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="BO20" s="11" t="s">
         <v>73</v>
       </c>
       <c r="BP20" t="s">
@@ -5661,7 +5050,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:70">
+    <row r="21" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>70</v>
       </c>
@@ -5725,10 +5114,10 @@
       <c r="U21" t="s">
         <v>78</v>
       </c>
-      <c r="V21" s="6">
+      <c r="V21" s="5">
         <v>9838234567</v>
       </c>
-      <c r="W21" s="6">
+      <c r="W21" s="5">
         <v>340358520050965</v>
       </c>
       <c r="X21">
@@ -5851,16 +5240,16 @@
       <c r="BK21" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="BL21" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="BM21" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="BN21" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="BO21" s="12" t="s">
+      <c r="BL21" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="BM21" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="BN21" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="BO21" s="11" t="s">
         <v>73</v>
       </c>
       <c r="BP21" t="s">
@@ -5873,27 +5262,25 @@
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="6:6">
+    <row r="22" spans="1:70" x14ac:dyDescent="0.2">
       <c r="F22" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BA2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.4" outlineLevelRow="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:53">
+    <row r="1" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6054,7 +5441,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="2:53">
+    <row r="2" spans="1:53" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>120</v>
       </c>
@@ -6214,6 +5601,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>